--- a/src/attributions/attributions_saliency_traj_112.xlsx
+++ b/src/attributions/attributions_saliency_traj_112.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004009542055428028</v>
+        <v>0.06757855415344238</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002173956483602524</v>
+        <v>0.1120225489139557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09419608116149902</v>
+        <v>0.2518828809261322</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01110771205276251</v>
+        <v>0.06932209432125092</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1139913722872734</v>
+        <v>0.2321990728378296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001008119434118271</v>
+        <v>0.1176656037569046</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03368778899312019</v>
+        <v>0.02647312358021736</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03312907740473747</v>
+        <v>0.08791660517454147</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0499986931681633</v>
+        <v>0.2027970999479294</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004013249184936285</v>
+        <v>0.2169452607631683</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02765624783933163</v>
+        <v>0.110319659113884</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09904734045267105</v>
+        <v>0.1990737318992615</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01178462617099285</v>
+        <v>0.01417793892323971</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07161488384008408</v>
+        <v>0.2819948196411133</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0002997685223817825</v>
+        <v>0.008420656435191631</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02492502331733704</v>
+        <v>0.01653865724802017</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04210332036018372</v>
+        <v>0.04618009179830551</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05072776973247528</v>
+        <v>0.3143632411956787</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0005682631745003164</v>
+        <v>0.01038029789924622</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03693434968590736</v>
+        <v>0.01904797554016113</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00487535260617733</v>
+        <v>0.04108095169067383</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02985946275293827</v>
+        <v>0.07227437198162079</v>
       </c>
       <c r="W3" t="n">
-        <v>0.007796932011842728</v>
+        <v>0.03614926338195801</v>
       </c>
       <c r="X3" t="n">
-        <v>0.006752040237188339</v>
+        <v>0.1001280471682549</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.007697530556470156</v>
+        <v>0.01175131369382143</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02666132152080536</v>
+        <v>0.02118345350027084</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.001966455951333046</v>
+        <v>0.07992406934499741</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.008468718267977238</v>
+        <v>0.05089986696839333</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.009455501101911068</v>
+        <v>0.06892812997102737</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.004262130707502365</v>
+        <v>0.01819150894880295</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01238331757485867</v>
+        <v>0.03913681209087372</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02064738608896732</v>
+        <v>0.1913760602474213</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01686960458755493</v>
+        <v>0.01072127185761929</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0112561909481883</v>
+        <v>0.04437257349491119</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02859265729784966</v>
+        <v>0.04819989949464798</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.03015555441379547</v>
+        <v>0.1135482713580132</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.01087616942822933</v>
+        <v>0.0431697741150856</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0241228099912405</v>
+        <v>0.01340408530086279</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.006730834953486919</v>
+        <v>0.01301949843764305</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.006378486752510071</v>
+        <v>0.1287435293197632</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.006780385971069336</v>
+        <v>0.03494056314229965</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.002177844755351543</v>
+        <v>0.03374618291854858</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.002845784649252892</v>
+        <v>0.05839073657989502</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.005602726712822914</v>
+        <v>0.02381760254502296</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.008605295792222023</v>
+        <v>0.04409603029489517</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.008208769373595715</v>
+        <v>0.02505720779299736</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.01082545705139637</v>
+        <v>0.08419172465801239</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.06122414022684097</v>
+        <v>0.05480292066931725</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.01426066551357508</v>
+        <v>0.06955289840698242</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.05184999853372574</v>
+        <v>0.03686542063951492</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.03369644656777382</v>
+        <v>0.05298644304275513</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.003220962360501289</v>
+        <v>0.09474271535873413</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.04811353981494904</v>
+        <v>0.08040778338909149</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.03729712218046188</v>
+        <v>0.1780375391244888</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.001434281817637384</v>
+        <v>0.03531729057431221</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.008483665063977242</v>
+        <v>0.1286202669143677</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0267065055668354</v>
+        <v>0.1587396264076233</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01246336940675974</v>
+        <v>0.1113855987787247</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.028887789696455</v>
+        <v>0.2147101908922195</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.01931700669229031</v>
+        <v>0.1383130252361298</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.01300588995218277</v>
+        <v>0.02651047706604004</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01133175753057003</v>
+        <v>0.00183243490755558</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01377516146749258</v>
+        <v>0.2797088921070099</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.004340884275734425</v>
+        <v>0.01081762090325356</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.00338741485029459</v>
+        <v>0.0863470584154129</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.02565621584653854</v>
+        <v>0.01444584690034389</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.001227168599143624</v>
+        <v>0.06293748319149017</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.006031536497175694</v>
+        <v>0.05378389731049538</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0268932431936264</v>
+        <v>0.00679454579949379</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.00611527543514967</v>
+        <v>0.03572471812367439</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.01282010413706303</v>
+        <v>0.05107764154672623</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.01081591844558716</v>
+        <v>0.07504954189062119</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.02130930498242378</v>
+        <v>0.05767159163951874</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.00770396925508976</v>
+        <v>0.09977982938289642</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01687211543321609</v>
+        <v>0.01600836962461472</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.008143641985952854</v>
+        <v>0.01830753311514854</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.05503734946250916</v>
+        <v>0.06571634113788605</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.01937413401901722</v>
+        <v>0.08699186891317368</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.003187262918800116</v>
+        <v>0.02408668771386147</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.01321662869304419</v>
+        <v>0.06982365995645523</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.04102663695812225</v>
+        <v>0.1341754198074341</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.006741287186741829</v>
+        <v>0.02684894390404224</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.02173913456499577</v>
+        <v>0.03141969069838524</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.02138311043381691</v>
+        <v>0.04572740197181702</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.007942348718643188</v>
+        <v>0.04401110857725143</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.02220387198030949</v>
+        <v>0.01477456651628017</v>
       </c>
       <c r="CI3" t="n">
-        <v>7.974309846758842e-05</v>
+        <v>0.01277310214936733</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.01180481351912022</v>
+        <v>0.01038451120257378</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001794138923287392</v>
+        <v>0.04098370671272278</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.005965401418507099</v>
+        <v>0.04149860516190529</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.004724338185042143</v>
+        <v>0.03916383534669876</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.05138182640075684</v>
+        <v>0.04710466042160988</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01342430245131254</v>
+        <v>0.0230766236782074</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.008265772834420204</v>
+        <v>0.1616251468658447</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.02498923242092133</v>
+        <v>0.05714913457632065</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.00456739217042923</v>
+        <v>0.01492709200829268</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.003353042062371969</v>
+        <v>0.0005282647907733917</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.02585148438811302</v>
+        <v>0.01572450622916222</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.009875265881419182</v>
+        <v>0.01468771137297153</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.006506322883069515</v>
+        <v>0.0216146819293499</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.01686675660312176</v>
+        <v>0.03089976124465466</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02137901820242405</v>
+        <v>0.03882221877574921</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.004624848254024982</v>
+        <v>0.05148302763700485</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.03276855126023293</v>
+        <v>0.006269947160035372</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.007839796133339405</v>
+        <v>0.04454278573393822</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.01697416603565216</v>
+        <v>0.006378742400556803</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.001541966455988586</v>
+        <v>0.01472385041415691</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.009728303179144859</v>
+        <v>0.04960788041353226</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.01128475554287434</v>
+        <v>0.002398695796728134</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.03304107114672661</v>
+        <v>0.02135621756315231</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.03852074965834618</v>
+        <v>0.1347611844539642</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.04028735309839249</v>
+        <v>0.08174959570169449</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01050181314349174</v>
+        <v>0.1138224229216576</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.001563896425068378</v>
+        <v>0.1395237892866135</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.03529196605086327</v>
+        <v>0.1254426687955856</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0001984904520213604</v>
+        <v>0.1232863515615463</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0248069055378437</v>
+        <v>0.08876787126064301</v>
       </c>
       <c r="DN3" t="n">
-        <v>5.016103386878967e-05</v>
+        <v>0.02347864396870136</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.02623017318546772</v>
+        <v>0.02176468260586262</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01755736954510212</v>
+        <v>0.003561768680810928</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.005898906849324703</v>
+        <v>0.09093727916479111</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.01892983727157116</v>
+        <v>0.1236880049109459</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.02501702308654785</v>
+        <v>0.03492115437984467</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.006260577589273453</v>
+        <v>0.1703914850950241</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0080588199198246</v>
+        <v>0.1061155274510384</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.007247665897011757</v>
+        <v>0.06886637210845947</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.001467767171561718</v>
+        <v>0.007977541536092758</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.001690745819360018</v>
+        <v>0.0211949460208416</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.002689918270334601</v>
+        <v>0.01711008325219154</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01011120714247227</v>
+        <v>0.05892810970544815</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.009921875782310963</v>
+        <v>0.07574076950550079</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.01543218083679676</v>
+        <v>0.02325521223247051</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0009853504598140717</v>
+        <v>0.01874088495969772</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01578395813703537</v>
+        <v>0.02812312915921211</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0115771722048521</v>
+        <v>0.04587653651833534</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.009263506159186363</v>
+        <v>0.03143990039825439</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.01624342799186707</v>
+        <v>0.04485096782445908</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.018574059009552</v>
+        <v>0.0662258118391037</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.007662713527679443</v>
+        <v>0.03772087395191193</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.008621166460216045</v>
+        <v>0.01004583761096001</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.01818452030420303</v>
+        <v>0.1376627385616302</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.007268226239830256</v>
+        <v>0.00509987398982048</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.00494695408269763</v>
+        <v>0.00495931226760149</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.008169550448656082</v>
+        <v>0.08124612271785736</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.008561123162508011</v>
+        <v>0.04477466642856598</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.007690111640840769</v>
+        <v>0.004104124382138252</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.003586836159229279</v>
+        <v>0.05476145073771477</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.008701098151504993</v>
+        <v>0.01513713784515858</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02269254811108112</v>
+        <v>0.07861576974391937</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02001241222023964</v>
+        <v>0.02393264137208462</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.01749414578080177</v>
+        <v>0.03799628838896751</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.004723592661321163</v>
+        <v>0.08531416207551956</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.003226460190489888</v>
+        <v>0.1389011740684509</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.005614018533378839</v>
+        <v>0.02725179679691792</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.01584421284496784</v>
+        <v>0.02531925961375237</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.02162913233041763</v>
+        <v>0.04642435535788536</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.007082927040755749</v>
+        <v>0.07096896320581436</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.02427194081246853</v>
+        <v>0.0006948537775315344</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.01158565655350685</v>
+        <v>0.03904116153717041</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0117009412497282</v>
+        <v>0.006610328331589699</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.005079710390418768</v>
+        <v>0.02119187451899052</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0101806903257966</v>
+        <v>0.05350876972079277</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0003464070614427328</v>
+        <v>0.01170636434108019</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.004505353979766369</v>
+        <v>0.03279188275337219</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.01101275533437729</v>
+        <v>0.02854469977319241</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.001149820163846016</v>
+        <v>0.002770163118839264</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.01918342337012291</v>
+        <v>0.02620203979313374</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.009969032369554043</v>
+        <v>0.02059479989111423</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.01045988406985998</v>
+        <v>0.09858015179634094</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.01617630198597908</v>
+        <v>0.01080192252993584</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.04183835536241531</v>
+        <v>0.06196806579828262</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.001256439834833145</v>
+        <v>0.03447233140468597</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.03812476992607117</v>
+        <v>0.03295641392469406</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.01003559492528439</v>
+        <v>0.007452189922332764</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0426722951233387</v>
+        <v>0.1875599324703217</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.004598870873451233</v>
+        <v>0.04347053542733192</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0009772274643182755</v>
+        <v>0.01329996436834335</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.0003600893542170525</v>
+        <v>0.07677609473466873</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0111865010112524</v>
+        <v>0.04344963282346725</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.008107224479317665</v>
+        <v>0.02028166502714157</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.009037572890520096</v>
+        <v>0.006515697576105595</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.01308451034128666</v>
+        <v>0.009434404782950878</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.007805640809237957</v>
+        <v>0.001239916542544961</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.007230803370475769</v>
+        <v>0.03175053372979164</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.004309610929340124</v>
+        <v>0.01263951882719994</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.01150763779878616</v>
+        <v>0.1031662076711655</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.008251695893704891</v>
+        <v>0.05045918002724648</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.02654575183987617</v>
+        <v>0.02345681190490723</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.006218281574547291</v>
+        <v>0.09299337863922119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0003496373537927866</v>
+        <v>0.000182030227733776</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0006111435359343886</v>
+        <v>0.001040090573951602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001909709186293185</v>
+        <v>6.6739710746333e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>9.893838432617486e-05</v>
+        <v>0.0005393993924371898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002878526458516717</v>
+        <v>0.0001935963227879256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001886514073703438</v>
+        <v>0.0003297577204648405</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004491366562433541</v>
+        <v>9.055664122570306e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000322431413223967</v>
+        <v>2.284143920405768e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002180606359615922</v>
+        <v>3.394662417122163e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.427453000564128e-05</v>
+        <v>0.0002125503960996866</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0004760522861033678</v>
+        <v>0.0006962849874980748</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002365292515605688</v>
+        <v>8.864171104505658e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005695702857337892</v>
+        <v>0.0004300487926229835</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002387852175161242</v>
+        <v>0.0003142701170872897</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001469532726332545</v>
+        <v>0.0003984764334745705</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0005838030483573675</v>
+        <v>9.171338024316356e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0001998887018999085</v>
+        <v>0.0002113931986968964</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002101898426190019</v>
+        <v>9.268134454032406e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>6.546798249473795e-05</v>
+        <v>8.888098818715662e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0001717685954645276</v>
+        <v>0.0001468418049626052</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001838087919168174</v>
+        <v>1.27737112052273e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0008251143153756857</v>
+        <v>8.42547815409489e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.777528086677194e-05</v>
+        <v>2.390183726674877e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>3.558035677997395e-05</v>
+        <v>0.0001331079693045467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0007379194721579552</v>
+        <v>0.0001762980537023395</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001345199561910704</v>
+        <v>4.403783532325178e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.000170824263477698</v>
+        <v>6.336296064546332e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.792863470967859e-06</v>
+        <v>5.294369475450367e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.32137996237725e-05</v>
+        <v>0.0001370363606838509</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0006512705003842711</v>
+        <v>2.902073174482211e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0002091862843371928</v>
+        <v>5.855863491888158e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0002085703745251521</v>
+        <v>0.0001033865046338178</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0001223641593242064</v>
+        <v>3.25198816426564e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.000312222313368693</v>
+        <v>1.205699300044216e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0007462661014869809</v>
+        <v>7.010777335381135e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0006295949569903314</v>
+        <v>7.059454219415784e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.288536441279575e-05</v>
+        <v>6.213009328348562e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0007740178843960166</v>
+        <v>0.0001195012300740927</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0001362715265713632</v>
+        <v>1.757192876539193e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.511031824629754e-05</v>
+        <v>1.975588202185463e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0002244749484816566</v>
+        <v>1.513014194642892e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.001100752386264503</v>
+        <v>0.0001266018080059439</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.211202031001449e-05</v>
+        <v>4.275826722732745e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0003961091570090503</v>
+        <v>3.31511655531358e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.150058207917027e-06</v>
+        <v>7.006495434325188e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0005017611547373235</v>
+        <v>8.153438830049708e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.001059768488630652</v>
+        <v>0.000724588637240231</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001737206359393895</v>
+        <v>4.646142315323232e-06</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0002029351162491366</v>
+        <v>0.0002353987656533718</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.001041367300786078</v>
+        <v>8.015271305339411e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.001845022896304727</v>
+        <v>5.977344699203968e-07</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.000277186743915081</v>
+        <v>8.575058745918795e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0006663076928816736</v>
+        <v>6.729806773364544e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0006039878353476524</v>
+        <v>0.000132982968352735</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.252212627558038e-05</v>
+        <v>0.0001244074665009975</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0001653346989769489</v>
+        <v>0.0001470270362915471</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0004615102370735258</v>
+        <v>0.0001532541791675612</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0004019279440399259</v>
+        <v>7.067337719490752e-06</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0003946668293792754</v>
+        <v>0.0003096882428508252</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0008031247416511178</v>
+        <v>0.0002233199775218964</v>
       </c>
       <c r="BI4" t="n">
-        <v>5.098052497487515e-06</v>
+        <v>9.87607563729398e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0004895834717899561</v>
+        <v>0.000162668467964977</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0008249172242358327</v>
+        <v>1.445065299776616e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0001989329466596246</v>
+        <v>4.9529302486917e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0001494648604420945</v>
+        <v>3.789744732785039e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.001035464461892843</v>
+        <v>2.085540472762659e-05</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0005543559091165662</v>
+        <v>0.000100604011095129</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.161633139825426e-05</v>
+        <v>4.68067082692869e-06</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0001588654704391956</v>
+        <v>4.488831837079488e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0003029245126526803</v>
+        <v>1.062438968801871e-06</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0001055092143360525</v>
+        <v>4.217489185975865e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0002158597490051761</v>
+        <v>4.676195385400206e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.663489092607051e-05</v>
+        <v>6.188324186950922e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0006336690858006477</v>
+        <v>0.0003702564572449774</v>
       </c>
       <c r="BW4" t="n">
-        <v>6.816453242208809e-05</v>
+        <v>2.888017479563132e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0001982774410862476</v>
+        <v>9.645833051763475e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0009403995354659855</v>
+        <v>6.822323484811932e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0001809855602914467</v>
+        <v>0.0002218804293079302</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0004702814621850848</v>
+        <v>5.721081106457859e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.00044046196853742</v>
+        <v>6.359077815432101e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0009048044448718429</v>
+        <v>8.066014561336488e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0001502880768384784</v>
+        <v>6.008636773913167e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0005588248604908586</v>
+        <v>0.0001714913814794272</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0004059195052832365</v>
+        <v>6.057229256839491e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.793089515762404e-05</v>
+        <v>5.395735570346005e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0007158187800087035</v>
+        <v>4.958412318956107e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>7.469706179108471e-05</v>
+        <v>8.75315599841997e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3.706544521264732e-05</v>
+        <v>3.191561700077727e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>9.581026097293943e-05</v>
+        <v>1.045130920829251e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0001749375223880634</v>
+        <v>5.344225428416394e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.0003434612299315631</v>
+        <v>6.118004239397123e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.001302143675275147</v>
+        <v>1.756962592480704e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0002445735153742135</v>
+        <v>6.087557267164811e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0004955184413120151</v>
+        <v>0.0001225094019901007</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0001780571037670597</v>
+        <v>0.0001455569581594318</v>
       </c>
       <c r="CR4" t="n">
-        <v>7.788043149048463e-05</v>
+        <v>0.0001042710136971436</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.000192093473742716</v>
+        <v>7.220329280244187e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0001693125814199448</v>
+        <v>0.0002306880487594754</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0003651542065199465</v>
+        <v>8.587386219005566e-06</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0001662456779740751</v>
+        <v>4.337645077612251e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.0006542804767377675</v>
+        <v>0.0001335572160314769</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.0004374451236799359</v>
+        <v>6.369236507453024e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>2.788354322547093e-05</v>
+        <v>0.0001175539000541903</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0008566313190385699</v>
+        <v>4.190369145362638e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0001592606131453067</v>
+        <v>0.0001085579860955477</v>
       </c>
       <c r="DB4" t="n">
-        <v>5.522680294234306e-05</v>
+        <v>2.194589251303114e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.426702485536225e-05</v>
+        <v>8.487797458656132e-06</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0003319529932923615</v>
+        <v>3.679130168166012e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0002158016868634149</v>
+        <v>2.527131618990097e-05</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.001000167103484273</v>
+        <v>0.0002112521760864183</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.001072316663339734</v>
+        <v>2.905973269662354e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.8817197997123e-05</v>
+        <v>0.0002777027839329094</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0008703861385583878</v>
+        <v>6.351688352879137e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.000317869009450078</v>
+        <v>1.022930882754736e-05</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0006044558831490576</v>
+        <v>0.0001023930599330924</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0003916074347216636</v>
+        <v>0.0001734883553581312</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0003554300346877426</v>
+        <v>1.373626946588047e-05</v>
       </c>
       <c r="DN4" t="n">
-        <v>4.793054904439487e-05</v>
+        <v>0.0001227398461196572</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0003426307812333107</v>
+        <v>2.104128361679614e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.000346361513948068</v>
+        <v>3.337477392051369e-05</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0005762220825999975</v>
+        <v>2.908311398641672e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0002401703968644142</v>
+        <v>4.484367309487425e-06</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.0002342719380976632</v>
+        <v>0.0001440173218725249</v>
       </c>
       <c r="DT4" t="n">
-        <v>2.475335350027308e-05</v>
+        <v>9.942039469024166e-06</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0003179494524374604</v>
+        <v>3.955505235353485e-06</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.0001060261638485827</v>
+        <v>8.146905747707933e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0002156463597202674</v>
+        <v>6.482040043920279e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>8.895400969777256e-05</v>
+        <v>4.03920748794917e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.0003281680983491242</v>
+        <v>0.0001905045937746763</v>
       </c>
       <c r="DZ4" t="n">
-        <v>5.604275793302804e-05</v>
+        <v>3.786937304539606e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0002171238011214882</v>
+        <v>0.0001302410382777452</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0002131482178810984</v>
+        <v>7.1591159212403e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0001651453640079126</v>
+        <v>6.107635272201151e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0002241398760816082</v>
+        <v>6.684775144094601e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0001527698041172698</v>
+        <v>2.004117050091736e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.00027474295347929</v>
+        <v>4.382449697004631e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0007497084443457425</v>
+        <v>8.031538891373202e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0003115699801128358</v>
+        <v>5.380120455811266e-06</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.961745692824479e-05</v>
+        <v>5.225685526966117e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0005964204901829362</v>
+        <v>1.966876880032942e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.0007904754020273685</v>
+        <v>8.921312110032886e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0002438025112496689</v>
+        <v>5.215273995418102e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0002235666615888476</v>
+        <v>6.18091580690816e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0001874179724836722</v>
+        <v>6.272772225202061e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0001754693512339145</v>
+        <v>4.467946564545855e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.000276647973805666</v>
+        <v>0.0001377809094265103</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0005276914453133941</v>
+        <v>1.042630174197257e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0002686276857275516</v>
+        <v>9.936537389876321e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0004391354159452021</v>
+        <v>0.0001223381841555238</v>
       </c>
       <c r="ET4" t="n">
-        <v>2.062631756416522e-05</v>
+        <v>0.0003444126923568547</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0001409166725352407</v>
+        <v>5.179161234991625e-06</v>
       </c>
       <c r="EV4" t="n">
-        <v>8.836472261464223e-05</v>
+        <v>3.200153514626436e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>5.820825754199177e-05</v>
+        <v>2.710797343752347e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0002212089602835476</v>
+        <v>3.942354305763729e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0006486673373728991</v>
+        <v>0.0001525300467619672</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0004373527772258967</v>
+        <v>1.930838152475189e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>9.077660797629505e-05</v>
+        <v>8.375785546377301e-05</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0006665298715233803</v>
+        <v>4.351934330770746e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>2.098199911415577e-05</v>
+        <v>0.0001033745284075849</v>
       </c>
       <c r="FD4" t="n">
-        <v>3.887810453306884e-05</v>
+        <v>3.690957237267867e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>3.473920878604986e-05</v>
+        <v>2.297383616678417e-07</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.000319368380587548</v>
+        <v>4.998209988116287e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0001938994682859629</v>
+        <v>1.311244523094501e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.00040435791015625</v>
+        <v>7.480013300664723e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0003866909246426076</v>
+        <v>3.127450327156112e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0003411095822229981</v>
+        <v>0.0001339425652986392</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0007082115043886006</v>
+        <v>4.077061930729542e-06</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.000780292903073132</v>
+        <v>4.095558324479498e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>3.790371920331381e-05</v>
+        <v>5.636402784148231e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0001736973936203867</v>
+        <v>3.123615169897676e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.0003077041474170983</v>
+        <v>0.0001225097803398967</v>
       </c>
       <c r="FP4" t="n">
-        <v>7.718287815805525e-05</v>
+        <v>1.015481302601984e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0007944187382236123</v>
+        <v>2.212199615314603e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>6.014921382302418e-05</v>
+        <v>2.14302672247868e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0005116597167216241</v>
+        <v>0.0001378458982799202</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.637825334910303e-05</v>
+        <v>0.0003107289376202971</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0002530043420847505</v>
+        <v>1.354022970190272e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0004875826998613775</v>
+        <v>3.358429967192933e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>4.725770122604445e-05</v>
+        <v>7.10247695678845e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0002875063801184297</v>
+        <v>6.667587877018377e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0001994867925532162</v>
+        <v>6.612561992369592e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0002689059474505484</v>
+        <v>7.038499461486936e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0002752589352894574</v>
+        <v>4.871932833339088e-05</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0004078171332366765</v>
+        <v>4.385476495372131e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0002150477666873485</v>
+        <v>0.0002204842021455988</v>
       </c>
       <c r="GD4" t="n">
-        <v>2.594416582724079e-05</v>
+        <v>0.0001057766639860347</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0002141582954209298</v>
+        <v>0.0001956569030880928</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0001579796517034993</v>
+        <v>1.741994492476806e-05</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0003861957811750472</v>
+        <v>5.031256296206266e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004741867072880268</v>
+        <v>4.211438408674439e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01170496828854084</v>
+        <v>0.0002200423186877742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006250866688787937</v>
+        <v>4.506291588768363e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01058503054082394</v>
+        <v>5.946979945292696e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008993432857096195</v>
+        <v>7.863635255489498e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002621617168188095</v>
+        <v>0.0001381142064929008</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004167389590293169</v>
+        <v>1.198552126879804e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005086094606667757</v>
+        <v>3.67234788427595e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02046767249703407</v>
+        <v>2.03251838684082e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009053770452737808</v>
+        <v>1.814539064071141e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009158242493867874</v>
+        <v>0.000190578997717239</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01360680721700191</v>
+        <v>1.25928290799493e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0104173831641674</v>
+        <v>0.000113120702735614</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01458226516842842</v>
+        <v>0.0001267189072677866</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001116121187806129</v>
+        <v>0.0001680191053310409</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01039715576916933</v>
+        <v>6.928262882865965e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0008992840303108096</v>
+        <v>3.469464354566298e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02579081803560257</v>
+        <v>3.174710946041159e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0008613323443569243</v>
+        <v>1.177314879896585e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0005703023634850979</v>
+        <v>4.228229227010161e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002019139239564538</v>
+        <v>7.625317721249303e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.003610682906582952</v>
+        <v>1.961001180461608e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002010217169299722</v>
+        <v>4.819406058231834e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0005658891750499606</v>
+        <v>3.480065788608044e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.007882473990321159</v>
+        <v>9.698485882836394e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001274787820875645</v>
+        <v>2.627916728670243e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004554563201963902</v>
+        <v>3.364380972925574e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002492580562829971</v>
+        <v>3.514211130095646e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.002496548928320408</v>
+        <v>5.37490050191991e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.002999608404934406</v>
+        <v>5.000932287657633e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.004390026442706585</v>
+        <v>3.71107817045413e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.003762202803045511</v>
+        <v>7.179838576121256e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0006047427887097001</v>
+        <v>3.490211383905262e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.006220623850822449</v>
+        <v>2.886486799980048e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.005337555892765522</v>
+        <v>1.154932760982774e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.003414949169382453</v>
+        <v>6.374868007696932e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.002405527280643582</v>
+        <v>1.37119704959332e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.003875420428812504</v>
+        <v>4.149008236709051e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0024700160138309</v>
+        <v>3.621804353315383e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.00325133535079658</v>
+        <v>1.361897011520341e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.004626359324902296</v>
+        <v>3.856820057990262e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.01097498927265406</v>
+        <v>3.231950176996179e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.419868001714349e-05</v>
+        <v>2.23880670091603e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.001247534761205316</v>
+        <v>7.631816515640821e-06</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.001080451766029</v>
+        <v>9.930579835781828e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.001187081448733807</v>
+        <v>3.480923260212876e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.00338012189604342</v>
+        <v>0.0001647915341891348</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.01464502047747374</v>
+        <v>3.08665380543971e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.002795180771499872</v>
+        <v>2.383099308644887e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0006801197305321693</v>
+        <v>4.116193667869084e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01306652091443539</v>
+        <v>4.86213102703914e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.002431605476886034</v>
+        <v>6.536075670737773e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.004857382271438837</v>
+        <v>2.671377660590224e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.01076377183198929</v>
+        <v>2.976042196678463e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.004468522965908051</v>
+        <v>9.508257790002972e-07</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.002196707995608449</v>
+        <v>6.459240830736235e-05</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.003016477450728416</v>
+        <v>5.273302303976379e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.002077229553833604</v>
+        <v>1.064649859472411e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01011013798415661</v>
+        <v>0.0001324850600212812</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.006012174300849438</v>
+        <v>9.83366699074395e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002811617683619261</v>
+        <v>3.928159276256338e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01194500923156738</v>
+        <v>1.595125286257826e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.004177646711468697</v>
+        <v>1.505681848357199e-05</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0009641495998948812</v>
+        <v>2.720443808357231e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.002742971992120147</v>
+        <v>1.336232071480481e-05</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.005675861146301031</v>
+        <v>2.71704193437472e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.001962280832231045</v>
+        <v>1.324467120866757e-06</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.003165926784276962</v>
+        <v>6.437489901145454e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0003472284006420523</v>
+        <v>1.603245073056314e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0007985837874002755</v>
+        <v>2.977233816636726e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.001862005679868162</v>
+        <v>3.178947281412547e-06</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.003254550043493509</v>
+        <v>1.510604670329485e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.006136099342256784</v>
+        <v>1.369377696391894e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.006398424040526152</v>
+        <v>7.843055936973542e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0003323914716020226</v>
+        <v>3.088711309828795e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.00409564608708024</v>
+        <v>1.481168783357134e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0005635591223835945</v>
+        <v>8.649421033624094e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.003787024179473519</v>
+        <v>3.033985194633715e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.003920246381312609</v>
+        <v>2.842843059625011e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.004805995617061853</v>
+        <v>1.058981706592022e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.006337662227451801</v>
+        <v>5.179237632546574e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.001551736728288233</v>
+        <v>1.033401076711016e-06</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.008544666692614555</v>
+        <v>3.976796142524108e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.001002787495963275</v>
+        <v>3.070990715059452e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0003984090290032327</v>
+        <v>1.589689418324269e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0002099046832881868</v>
+        <v>4.981969141226728e-06</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0009899626020342112</v>
+        <v>1.930119287862908e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0001117591746151447</v>
+        <v>2.397381103946827e-05</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0004223394789732993</v>
+        <v>1.871880840553786e-06</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.002438192721456289</v>
+        <v>5.924895503994776e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.003954708576202393</v>
+        <v>3.121026020380668e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0003882326418533921</v>
+        <v>4.172776971245185e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.002046794863417745</v>
+        <v>3.290502718300559e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.002117689000442624</v>
+        <v>8.03708826424554e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0003630794817581773</v>
+        <v>1.14547628982109e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.001109425909817219</v>
+        <v>7.368209480773658e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0001965080737136304</v>
+        <v>3.411476063774899e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.005090976133942604</v>
+        <v>7.409176760120317e-05</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.005541898310184479</v>
+        <v>9.950896128430031e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.00154499732889235</v>
+        <v>7.764920155750588e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.007848353125154972</v>
+        <v>2.827753269230016e-05</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0004970032023265958</v>
+        <v>1.19855012599146e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.000740108429454267</v>
+        <v>1.821158366510645e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.000904387328773737</v>
+        <v>3.359444690431701e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0004255528328940272</v>
+        <v>1.955331390490755e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0003429981879889965</v>
+        <v>1.233722650795244e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0002736855240073055</v>
+        <v>1.662451722950209e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.002882617060095072</v>
+        <v>4.660621925722808e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.003311685519292951</v>
+        <v>1.764388071023859e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01614965684711933</v>
+        <v>6.524223135784268e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01471436955034733</v>
+        <v>6.25133397988975e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.002651504473760724</v>
+        <v>9.107130608754233e-06</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.002493660664185882</v>
+        <v>2.508611942175776e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01588130556046963</v>
+        <v>9.492327808402479e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.006214703433215618</v>
+        <v>4.604933201335371e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0004312384407967329</v>
+        <v>2.504494113964029e-05</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.003085666336119175</v>
+        <v>2.212757863162551e-05</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0003751430194824934</v>
+        <v>7.027712399576558e-06</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0006361428531818092</v>
+        <v>2.656281503732316e-05</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.006331860087811947</v>
+        <v>1.48366007124423e-06</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.003812823444604874</v>
+        <v>5.207506183069199e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.005669070407748222</v>
+        <v>2.943348590633832e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.005603240337222815</v>
+        <v>3.477451900835149e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0001050247228704393</v>
+        <v>1.256289760931395e-05</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.002211486222222447</v>
+        <v>1.945804433489684e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.001442153356038034</v>
+        <v>7.900794116721954e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.00154475960880518</v>
+        <v>1.470462848374154e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.001795127289369702</v>
+        <v>1.020920535665937e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.00125837663654238</v>
+        <v>8.26531231723493e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.000716252950951457</v>
+        <v>5.51739358343184e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.00301094469614327</v>
+        <v>3.822245162155014e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001174668781459332</v>
+        <v>3.642472802312113e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.001199802849441767</v>
+        <v>2.988206324516796e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0007087039994075894</v>
+        <v>6.733233021805063e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.002624981105327606</v>
+        <v>1.196254743263125e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.003127087606117129</v>
+        <v>1.521249214420095e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.01391948666423559</v>
+        <v>2.309556839463767e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.001006085542030632</v>
+        <v>4.329502644395689e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.002636089688166976</v>
+        <v>1.865297963377088e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.00293230963870883</v>
+        <v>1.153880748461233e-05</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0009940596064552665</v>
+        <v>4.115893716516439e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.000913046533241868</v>
+        <v>4.287514457246289e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0006178054609335959</v>
+        <v>4.503056061366806e-07</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.003993562422692776</v>
+        <v>3.203678261343157e-06</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.001811460126191378</v>
+        <v>7.461355380655732e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.006541256792843342</v>
+        <v>1.130338205257431e-05</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0002363716921536252</v>
+        <v>2.548489101172891e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0005685409996658564</v>
+        <v>3.270171509939246e-05</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.00586231704801321</v>
+        <v>4.434376751305535e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.005814226809889078</v>
+        <v>5.19533823535312e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0008295211009681225</v>
+        <v>1.144869474956067e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.003036462236195803</v>
+        <v>6.85811892253696e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.002818429609760642</v>
+        <v>1.331128896708833e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002090595662593842</v>
+        <v>2.364697138546035e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.007010003086179495</v>
+        <v>2.966333522635978e-05</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0009206477552652359</v>
+        <v>2.560137090767967e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0001484389940742403</v>
+        <v>1.451434036425781e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>4.531012382358313e-05</v>
+        <v>9.604634215065744e-06</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0001192271010950208</v>
+        <v>2.225383650511503e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0003799381665885448</v>
+        <v>1.799163510440849e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0007984070107340813</v>
+        <v>8.060819709498901e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.00335799902677536</v>
+        <v>5.106456683279248e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.004235447850078344</v>
+        <v>3.12392512569204e-06</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.003929384984076023</v>
+        <v>7.034173449937953e-06</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.002878281055018306</v>
+        <v>5.108665391162504e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.001517988974228501</v>
+        <v>5.30574907315895e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0002411635359749198</v>
+        <v>5.438974403659813e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.003199861850589514</v>
+        <v>1.32533077703556e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.002684001810848713</v>
+        <v>2.792972009046935e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.004001785069704056</v>
+        <v>5.36125480721239e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>7.642561104148626e-05</v>
+        <v>3.144618312944658e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.00356226647272706</v>
+        <v>1.881263597169891e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.004830104298889637</v>
+        <v>7.002658821875229e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.000862384564243257</v>
+        <v>3.382688009878621e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.003158729989081621</v>
+        <v>7.968072168296203e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.006555693689733744</v>
+        <v>6.552533886861056e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.007327252998948097</v>
+        <v>5.587531632045284e-05</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.005385917611420155</v>
+        <v>5.184983820072375e-05</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.003663004608824849</v>
+        <v>8.59890496940352e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.003987371921539307</v>
+        <v>2.796378248604015e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.006098609883338213</v>
+        <v>1.317349961027503e-05</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.005358164198696613</v>
+        <v>3.978287350037135e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.004278193693608046</v>
+        <v>6.312449113465846e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.003736073151230812</v>
+        <v>4.695780262409244e-06</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.003268078900873661</v>
+        <v>1.118491582019487e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0007688995683565736</v>
+        <v>1.266294020751957e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.003805726766586304</v>
+        <v>1.792735565686598e-05</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.005420259665697813</v>
+        <v>2.039722494373564e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0004588392039295286</v>
+        <v>2.731881068029907e-05</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001230366411618888</v>
+        <v>0.01281987316906452</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0008357511251233518</v>
+        <v>0.07864522188901901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003663334297016263</v>
+        <v>0.005686255637556314</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001832918031141162</v>
+        <v>0.03690327703952789</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002959992736577988</v>
+        <v>0.01794358901679516</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002071999479085207</v>
+        <v>0.01806901767849922</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004219948896206915</v>
+        <v>0.003411001758649945</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001054995926097035</v>
+        <v>0.006984507665038109</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003143246751278639</v>
+        <v>0.002057782839983702</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0004689158231485635</v>
+        <v>0.01811023615300655</v>
       </c>
       <c r="K7" t="n">
-        <v>9.750760364113376e-05</v>
+        <v>0.05042209103703499</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003843457670882344</v>
+        <v>0.002693759510293603</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001506249653175473</v>
+        <v>0.03382767736911774</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002121600089594722</v>
+        <v>0.02979706972837448</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001458688493585214</v>
+        <v>0.02842207252979279</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0005491431802511215</v>
+        <v>0.00440176110714674</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001553171197883785</v>
+        <v>0.003760634921491146</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003493045922368765</v>
+        <v>0.005354352295398712</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001444259833078831</v>
+        <v>0.001877974020317197</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001115879276767373</v>
+        <v>0.009241068735718727</v>
       </c>
       <c r="U7" t="n">
-        <v>0.000132241373648867</v>
+        <v>0.002336620818823576</v>
       </c>
       <c r="V7" t="n">
-        <v>0.000841549423057586</v>
+        <v>0.01258302666246891</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0005529987975023687</v>
+        <v>0.01003232225775719</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0002812358434312046</v>
+        <v>0.005746167618781328</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0003818761033471674</v>
+        <v>0.009789531119167805</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0003565817314665765</v>
+        <v>0.005655992776155472</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0002590456278994679</v>
+        <v>0.006723093800246716</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.00015450399951078</v>
+        <v>0.002414514776319265</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.579104905948043e-05</v>
+        <v>0.01099313423037529</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0001463938388042152</v>
+        <v>0.0002854441991075873</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0006888121133670211</v>
+        <v>0.002671621274203062</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0002739420451689512</v>
+        <v>0.008302468806505203</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0007984997355379164</v>
+        <v>0.003489562310278416</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0002603822504170239</v>
+        <v>0.0006085997447371483</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0007940636714920402</v>
+        <v>0.001685474300757051</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.00109068036545068</v>
+        <v>0.002435653004795313</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0001847596431616694</v>
+        <v>0.006874013692140579</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001052975771017373</v>
+        <v>0.00884469598531723</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.000311327341478318</v>
+        <v>0.0002454389177728444</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0003385198069736362</v>
+        <v>0.0040116086602211</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0001073849707609043</v>
+        <v>0.007940091192722321</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0009417660185135901</v>
+        <v>0.01017904561012983</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.356149293016642e-05</v>
+        <v>0.0005150102078914642</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.000333246192894876</v>
+        <v>0.0004341034218668938</v>
       </c>
       <c r="AS7" t="n">
-        <v>7.793073018547148e-05</v>
+        <v>0.005188846029341221</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0008896266808733344</v>
+        <v>0.002897689118981361</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0009267693967558444</v>
+        <v>0.05543308705091476</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.002642829902470112</v>
+        <v>0.0004276013351045549</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0006714774062857032</v>
+        <v>0.00778571330010891</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.001034952234476805</v>
+        <v>0.004982208367437124</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.001685110153630376</v>
+        <v>0.0016129583818838</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.000233363956795074</v>
+        <v>0.003763514338061213</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0009120681206695735</v>
+        <v>0.0001082653179764748</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.001231467351317406</v>
+        <v>0.004888973198831081</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0001348261721432209</v>
+        <v>0.004197865724563599</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.959118319267873e-05</v>
+        <v>0.01219419110566378</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0009477417916059494</v>
+        <v>0.009726564399898052</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0003834230010397732</v>
+        <v>0.003948166966438293</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0005115534295327961</v>
+        <v>0.02349291183054447</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0004957625642418861</v>
+        <v>0.0111274616792798</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.000558743835426867</v>
+        <v>0.006940222810953856</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0003635078901425004</v>
+        <v>0.004489480052143335</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0004456198657862842</v>
+        <v>0.0003464120964054018</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.416099985362962e-05</v>
+        <v>0.009750879369676113</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0002387706481385976</v>
+        <v>0.01099557522684336</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0009451424703001976</v>
+        <v>0.002897709375247359</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0003798563848249614</v>
+        <v>0.006806990131735802</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0001690582284936681</v>
+        <v>0.007773018442094326</v>
       </c>
       <c r="BQ7" t="n">
-        <v>8.385187538806349e-05</v>
+        <v>0.005344141274690628</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.000661652535200119</v>
+        <v>0.004480002913624048</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.001108563970774412</v>
+        <v>0.001200944068841636</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0006328269955702126</v>
+        <v>0.007355370558798313</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0003138025349471718</v>
+        <v>0.003340058028697968</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.000341651844792068</v>
+        <v>0.0282029751688242</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0007461660425178707</v>
+        <v>0.00399793079122901</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0004121627134736627</v>
+        <v>0.008944697678089142</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.001326395315118134</v>
+        <v>0.005372620653361082</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.000302939850371331</v>
+        <v>0.01143688429147005</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0002073841169476509</v>
+        <v>0.002524378942325711</v>
       </c>
       <c r="CB7" t="n">
-        <v>3.243570972699672e-05</v>
+        <v>0.004038314335048199</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.001262699370272458</v>
+        <v>0.007160232868045568</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0001563506666570902</v>
+        <v>0.005207321606576443</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0005759484483860433</v>
+        <v>0.01261291559785604</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0007224106811918318</v>
+        <v>0.004761776886880398</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.000226941003347747</v>
+        <v>0.003183586755767465</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0006095501594245434</v>
+        <v>0.001635313034057617</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0002703494974412024</v>
+        <v>0.004983239807188511</v>
       </c>
       <c r="CJ7" t="n">
-        <v>2.947320172097534e-05</v>
+        <v>0.002463294425979257</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0002142138837371022</v>
+        <v>0.0009306833962909877</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.000453589775133878</v>
+        <v>0.003598187584429979</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0003466769412625581</v>
+        <v>0.007437338586896658</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.001610618317499757</v>
+        <v>0.002721774857491255</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0002996093244291842</v>
+        <v>0.007160578854382038</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0001760500745149329</v>
+        <v>0.01319499313831329</v>
       </c>
       <c r="CQ7" t="n">
-        <v>4.773846012540162e-05</v>
+        <v>0.007835403084754944</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0002306068199686706</v>
+        <v>0.007401073351502419</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0001430729462299496</v>
+        <v>0.008026519790291786</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0002004628622671589</v>
+        <v>0.009937265887856483</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0009008138440549374</v>
+        <v>0.002537966705858707</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0001456266036257148</v>
+        <v>0.00475236913189292</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0005319830379448831</v>
+        <v>0.01014481764286757</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0006081123719923198</v>
+        <v>0.004669558722525835</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0002274759171996266</v>
+        <v>0.00692563084885478</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0009037517593242228</v>
+        <v>0.001507642562501132</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0002254363207612187</v>
+        <v>0.005716555751860142</v>
       </c>
       <c r="DB7" t="n">
-        <v>6.313029007287696e-05</v>
+        <v>0.002859989646822214</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0003052870742976665</v>
+        <v>0.001642452552914619</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0005175615660846233</v>
+        <v>0.002540560672059655</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0007013618596829474</v>
+        <v>0.007187447510659695</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.000898134836461395</v>
+        <v>0.005639513954520226</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.001231453730724752</v>
+        <v>0.0009803437860682607</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0009655465255491436</v>
+        <v>0.01775688119232655</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0001566153950989246</v>
+        <v>0.01123377680778503</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0003914531553164124</v>
+        <v>0.004953610710799694</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0009893580572679639</v>
+        <v>0.007007638923823833</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0002881535328924656</v>
+        <v>0.0008487983141094446</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0008304736111313105</v>
+        <v>0.001693118829280138</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0001960853260243312</v>
+        <v>0.00957653671503067</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0003308430896140635</v>
+        <v>0.004248000681400299</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0003995922161266208</v>
+        <v>0.006069255527108908</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.000572329736314714</v>
+        <v>0.001902757794596255</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0002527073957026005</v>
+        <v>0.002475368091836572</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0006319234380498528</v>
+        <v>0.00903662946075201</v>
       </c>
       <c r="DT7" t="n">
-        <v>2.703619975363836e-05</v>
+        <v>0.0007972454186528921</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0004172060580458492</v>
+        <v>0.001462883432395756</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0002868800656870008</v>
+        <v>0.004900993313640356</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0001447181130060926</v>
+        <v>0.003872030880302191</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0002350864524487406</v>
+        <v>0.0009936451679095626</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.000353800249285996</v>
+        <v>0.01206910889595747</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0002010382304433733</v>
+        <v>0.003666358534246683</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0003689791192300618</v>
+        <v>0.008957586251199245</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.000246918061748147</v>
+        <v>0.002406243467703462</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0001356436987407506</v>
+        <v>0.0001950197038240731</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0008289918187074363</v>
+        <v>0.001075997948646545</v>
       </c>
       <c r="EE7" t="n">
-        <v>4.457833711057901e-05</v>
+        <v>0.003000050783157349</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0002082636056002229</v>
+        <v>0.001388280419632792</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.000724616926163435</v>
+        <v>0.00553568173199892</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0006147121894173324</v>
+        <v>0.0006026247283443809</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0001765808410709724</v>
+        <v>0.0007156512001529336</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0004170677857473493</v>
+        <v>0.002430849708616734</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.000667158979922533</v>
+        <v>0.003178413491696119</v>
       </c>
       <c r="EL7" t="n">
-        <v>8.325798262376338e-05</v>
+        <v>0.003515989519655704</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0004299681459087878</v>
+        <v>0.001788735273294151</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.000171660227351822</v>
+        <v>0.0001149495947174728</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.000543031666893512</v>
+        <v>0.004579111468046904</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0003223807725589722</v>
+        <v>0.008935190737247467</v>
       </c>
       <c r="EQ7" t="n">
-        <v>2.971656795125455e-05</v>
+        <v>0.001450263080187142</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0003255659539718181</v>
+        <v>0.007292804773896933</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0003340024268254638</v>
+        <v>0.007480151951313019</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0002757226466201246</v>
+        <v>0.02054218575358391</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0004099197685718536</v>
+        <v>0.006647755391895771</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0002221903414465487</v>
+        <v>0.01048232335597277</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0006616255850531161</v>
+        <v>0.0002744126250036061</v>
       </c>
       <c r="EX7" t="n">
-        <v>4.684189116233028e-05</v>
+        <v>0.003696494502946734</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0005714499275200069</v>
+        <v>0.01019417680799961</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0006419798010028899</v>
+        <v>0.001800275524146855</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.000139505515107885</v>
+        <v>0.005404018331319094</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0005373681779019535</v>
+        <v>0.0003752660122700036</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0001250843924935907</v>
+        <v>0.006244713440537453</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.844309346983209e-05</v>
+        <v>0.00400771526619792</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0003805091546382755</v>
+        <v>0.001845807302743196</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0006704977713525295</v>
+        <v>0.004241891205310822</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0002122759178746492</v>
+        <v>0.002617784310132265</v>
       </c>
       <c r="FH7" t="n">
-        <v>1.848996907938272e-05</v>
+        <v>0.006189047824591398</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0002665777574293315</v>
+        <v>0.00332271633669734</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0001490557770011947</v>
+        <v>0.00836719386279583</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0003941603936254978</v>
+        <v>0.0005870027816854417</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0002092453651130199</v>
+        <v>0.002550069708377123</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0001555843482492492</v>
+        <v>0.0007109212456271052</v>
       </c>
       <c r="FN7" t="n">
-        <v>9.781858534552157e-05</v>
+        <v>0.005642801057547331</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0006779752438887954</v>
+        <v>0.008032780140638351</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0002523655130062252</v>
+        <v>0.004885144531726837</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.001063104253262281</v>
+        <v>0.006641808897256851</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0004185233847238123</v>
+        <v>0.0003525725333020091</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0005680009489879012</v>
+        <v>0.006325634196400642</v>
       </c>
       <c r="FT7" t="n">
-        <v>5.68492105230689e-05</v>
+        <v>0.01723985001444817</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.0003180764033459127</v>
+        <v>0.004109182860702276</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0005652019754052162</v>
+        <v>0.002188890473917127</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0002603137982077897</v>
+        <v>0.001802891958504915</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0002785722608678043</v>
+        <v>0.003607936669141054</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0004218780668452382</v>
+        <v>0.008860617876052856</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0005535726086236537</v>
+        <v>0.00559689849615097</v>
       </c>
       <c r="GA7" t="n">
-        <v>7.021993951639161e-05</v>
+        <v>0.004275749437510967</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.00066281360341236</v>
+        <v>0.001058645197190344</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0002845599956344813</v>
+        <v>0.006574089173227549</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0008664117776788771</v>
+        <v>0.006655857432633638</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0004982369719073176</v>
+        <v>0.02125859446823597</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0007304150494746864</v>
+        <v>0.000764080323278904</v>
       </c>
       <c r="GG7" t="n">
-        <v>5.98757469560951e-06</v>
+        <v>0.002594939433038235</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.245409293915145e-06</v>
+        <v>0.002639313228428364</v>
       </c>
       <c r="B9" t="n">
-        <v>1.939304092957173e-05</v>
+        <v>0.01151344086974859</v>
       </c>
       <c r="C9" t="n">
-        <v>1.181655170512386e-05</v>
+        <v>0.001489766989834607</v>
       </c>
       <c r="D9" t="n">
-        <v>1.111006804421777e-05</v>
+        <v>0.004173922818154097</v>
       </c>
       <c r="E9" t="n">
-        <v>2.152684146494721e-06</v>
+        <v>0.00787412840873003</v>
       </c>
       <c r="F9" t="n">
-        <v>2.571114782767836e-05</v>
+        <v>0.003139863489195704</v>
       </c>
       <c r="G9" t="n">
-        <v>9.972573025152087e-06</v>
+        <v>0.001033185631968081</v>
       </c>
       <c r="H9" t="n">
-        <v>6.818243491579778e-06</v>
+        <v>0.0002527325414121151</v>
       </c>
       <c r="I9" t="n">
-        <v>4.818358502234332e-05</v>
+        <v>0.001044884440489113</v>
       </c>
       <c r="J9" t="n">
-        <v>1.562809848110192e-05</v>
+        <v>0.001036679488606751</v>
       </c>
       <c r="K9" t="n">
-        <v>1.442909797333414e-05</v>
+        <v>0.007000397890806198</v>
       </c>
       <c r="L9" t="n">
-        <v>2.959510493383277e-05</v>
+        <v>0.001391205238178372</v>
       </c>
       <c r="M9" t="n">
-        <v>1.139477353717666e-05</v>
+        <v>0.004338071215897799</v>
       </c>
       <c r="N9" t="n">
-        <v>2.154913318008767e-06</v>
+        <v>0.008139782585203648</v>
       </c>
       <c r="O9" t="n">
-        <v>9.356172995467205e-06</v>
+        <v>0.004328078590333462</v>
       </c>
       <c r="P9" t="n">
-        <v>1.286579663428711e-05</v>
+        <v>0.0009107176447287202</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.428370397770777e-06</v>
+        <v>0.002039219718426466</v>
       </c>
       <c r="R9" t="n">
-        <v>4.338809594628401e-05</v>
+        <v>0.0006983602652326226</v>
       </c>
       <c r="S9" t="n">
-        <v>7.784648005326744e-06</v>
+        <v>6.968369416426867e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>3.564249027476762e-06</v>
+        <v>0.002708099549636245</v>
       </c>
       <c r="U9" t="n">
-        <v>6.847716576885432e-06</v>
+        <v>9.020559809869155e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>6.38695291854674e-06</v>
+        <v>0.001563702942803502</v>
       </c>
       <c r="W9" t="n">
-        <v>8.304401490022428e-06</v>
+        <v>0.0003226527769584209</v>
       </c>
       <c r="X9" t="n">
-        <v>1.609827563697763e-06</v>
+        <v>0.001867902232334018</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.29753170767799e-05</v>
+        <v>0.0009506682399660349</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.240814185621275e-06</v>
+        <v>0.0007772999233566225</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.439767508301884e-06</v>
+        <v>0.0008392779272980988</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.09799645745079e-06</v>
+        <v>0.0003011233638972044</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.837263516790699e-05</v>
+        <v>0.002138509647920728</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.58765781938564e-06</v>
+        <v>0.0008136378601193428</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.213387258758303e-05</v>
+        <v>0.001571089844219387</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.585809625088586e-06</v>
+        <v>0.0002351025177631527</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.064847290574107e-07</v>
+        <v>0.0001011927233776078</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.485069697082508e-05</v>
+        <v>0.002077919896692038</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.141266006423393e-06</v>
+        <v>0.0005630288505926728</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.182057644655288e-06</v>
+        <v>0.000913927098736167</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.214151325257262e-06</v>
+        <v>0.001540953293442726</v>
       </c>
       <c r="AL9" t="n">
-        <v>7.647947199984628e-07</v>
+        <v>0.00259287771768868</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.033111508761067e-06</v>
+        <v>0.0004502545925788581</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.011402208765503e-07</v>
+        <v>0.0004120174562558532</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.248782832088182e-06</v>
+        <v>0.0008589921635575593</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.070949085464235e-05</v>
+        <v>0.001611188519746065</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.979352302645566e-06</v>
+        <v>0.0004442390927579254</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.225331046356587e-06</v>
+        <v>4.490560968406498e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.105394517253444e-06</v>
+        <v>0.0008463477715849876</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.152969889517408e-05</v>
+        <v>0.002063438761979342</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.973387720179744e-06</v>
+        <v>0.01063962653279305</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.716180642892141e-05</v>
+        <v>0.0005809229915030301</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.113957659981679e-05</v>
+        <v>0.0001658430555835366</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.466099820390809e-05</v>
+        <v>0.0007399781607091427</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.547417559777386e-05</v>
+        <v>0.001851992448791862</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.255940878763795e-05</v>
+        <v>0.0005203303880989552</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.177798367280047e-05</v>
+        <v>0.001512803370133042</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.994850754272193e-05</v>
+        <v>0.0003795848460868001</v>
       </c>
       <c r="BC9" t="n">
-        <v>8.749615517444909e-06</v>
+        <v>0.001108683994971216</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.238505410583457e-05</v>
+        <v>0.0008772386936470866</v>
       </c>
       <c r="BE9" t="n">
-        <v>6.9212628659443e-06</v>
+        <v>0.0008303601644001901</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.670640924407053e-06</v>
+        <v>0.0009949725354090333</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.498622259532567e-05</v>
+        <v>0.005827459972351789</v>
       </c>
       <c r="BH9" t="n">
-        <v>7.471068329323316e-06</v>
+        <v>0.0009862369624897838</v>
       </c>
       <c r="BI9" t="n">
-        <v>5.664329819410341e-06</v>
+        <v>0.001386495772749186</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.55444974754937e-05</v>
+        <v>0.002496773609891534</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.507048455096083e-05</v>
+        <v>0.001017163041979074</v>
       </c>
       <c r="BL9" t="n">
-        <v>7.338378964050207e-06</v>
+        <v>0.001442740787751973</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.019756109599257e-05</v>
+        <v>0.003082198090851307</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.649111800361425e-05</v>
+        <v>0.0002966086030937731</v>
       </c>
       <c r="BO9" t="n">
-        <v>4.370720489532687e-06</v>
+        <v>0.003025682643055916</v>
       </c>
       <c r="BP9" t="n">
-        <v>3.215324113625684e-06</v>
+        <v>0.002922867191955447</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.949499730675598e-06</v>
+        <v>0.0008483724668622017</v>
       </c>
       <c r="BR9" t="n">
-        <v>8.739052645978518e-06</v>
+        <v>0.001042284420691431</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.243043011025293e-06</v>
+        <v>8.196660928661004e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>6.189464329509065e-06</v>
+        <v>0.000251008925260976</v>
       </c>
       <c r="BU9" t="n">
-        <v>5.124787548993481e-06</v>
+        <v>0.001161071471869946</v>
       </c>
       <c r="BV9" t="n">
-        <v>7.478600764443399e-06</v>
+        <v>0.005238553509116173</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.262744490304613e-06</v>
+        <v>0.001573254470713437</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.243084393034223e-06</v>
+        <v>0.0003242116945330054</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.300193162023788e-05</v>
+        <v>0.001996992621570826</v>
       </c>
       <c r="BZ9" t="n">
-        <v>4.753332177642733e-06</v>
+        <v>0.002753128064796329</v>
       </c>
       <c r="CA9" t="n">
-        <v>9.308899279858451e-06</v>
+        <v>0.0008411132730543613</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.280518699786626e-05</v>
+        <v>0.0007206775480881333</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.367201821267372e-05</v>
+        <v>0.0006242876988835633</v>
       </c>
       <c r="CD9" t="n">
-        <v>3.37176106768311e-06</v>
+        <v>0.0004689170455094427</v>
       </c>
       <c r="CE9" t="n">
-        <v>9.03992258827202e-06</v>
+        <v>0.002120079239830375</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.869008201538236e-06</v>
+        <v>0.0002689625252969563</v>
       </c>
       <c r="CG9" t="n">
-        <v>3.492414634820307e-06</v>
+        <v>0.001390237361192703</v>
       </c>
       <c r="CH9" t="n">
-        <v>4.149568212596932e-06</v>
+        <v>0.000734243425540626</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.263925807710621e-06</v>
+        <v>0.001001684460788965</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.703237669265945e-06</v>
+        <v>0.0005593697424046695</v>
       </c>
       <c r="CK9" t="n">
-        <v>4.27507529821014e-06</v>
+        <v>2.623850741656497e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>3.953858595195925e-06</v>
+        <v>0.0004144265258219093</v>
       </c>
       <c r="CM9" t="n">
-        <v>7.494930287066381e-06</v>
+        <v>0.002240341855213046</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.015749138692627e-06</v>
+        <v>0.001315074856393039</v>
       </c>
       <c r="CO9" t="n">
-        <v>3.829797606158536e-06</v>
+        <v>0.001016112393699586</v>
       </c>
       <c r="CP9" t="n">
-        <v>9.053888788912445e-06</v>
+        <v>0.0003990301338490099</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.458054248359986e-05</v>
+        <v>0.00161234347615391</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.949115812749369e-06</v>
+        <v>0.001072581857442856</v>
       </c>
       <c r="CS9" t="n">
-        <v>5.586875886365306e-06</v>
+        <v>0.0003904890327248722</v>
       </c>
       <c r="CT9" t="n">
-        <v>5.34401851837174e-06</v>
+        <v>0.00111719430424273</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.085588337446097e-05</v>
+        <v>0.0001393548009218648</v>
       </c>
       <c r="CV9" t="n">
-        <v>5.370516191760544e-06</v>
+        <v>0.0004283422604203224</v>
       </c>
       <c r="CW9" t="n">
-        <v>6.934022621862823e-06</v>
+        <v>0.001284540863707662</v>
       </c>
       <c r="CX9" t="n">
-        <v>2.033119699262897e-06</v>
+        <v>0.0003737048828043044</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.284726861034869e-06</v>
+        <v>0.001981030683964491</v>
       </c>
       <c r="CZ9" t="n">
-        <v>5.91917796555208e-06</v>
+        <v>0.0006522369221784174</v>
       </c>
       <c r="DA9" t="n">
-        <v>5.179128947929712e-06</v>
+        <v>0.001407679985277355</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.503041403339012e-06</v>
+        <v>0.0005645886994898319</v>
       </c>
       <c r="DC9" t="n">
-        <v>4.364808773971163e-06</v>
+        <v>0.0002424772246740758</v>
       </c>
       <c r="DD9" t="n">
-        <v>7.806425855960697e-06</v>
+        <v>1.165423600468785e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>3.862188805214828e-06</v>
+        <v>0.00130805023945868</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.786514985724352e-05</v>
+        <v>0.003799682017415762</v>
       </c>
       <c r="DG9" t="n">
-        <v>3.546851803548634e-05</v>
+        <v>0.0002724035002756864</v>
       </c>
       <c r="DH9" t="n">
-        <v>7.979355359566398e-06</v>
+        <v>0.002736263908445835</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.487174358771881e-05</v>
+        <v>0.00346832862123847</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.673493170528673e-05</v>
+        <v>0.0001625774311833084</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.587666313047521e-05</v>
+        <v>0.003735895035788417</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.294888534175698e-05</v>
+        <v>0.0007867474923841655</v>
       </c>
       <c r="DM9" t="n">
-        <v>5.232036073721247e-06</v>
+        <v>0.001620641094632447</v>
       </c>
       <c r="DN9" t="n">
-        <v>4.423418431542814e-06</v>
+        <v>0.002510871971026063</v>
       </c>
       <c r="DO9" t="n">
-        <v>8.147115295287222e-06</v>
+        <v>0.00143972469959408</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.601015901542269e-05</v>
+        <v>2.864653652068228e-06</v>
       </c>
       <c r="DQ9" t="n">
-        <v>6.343091627059039e-06</v>
+        <v>0.001748647075146437</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.062613591784611e-05</v>
+        <v>0.0004038444894831628</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.810184926398506e-06</v>
+        <v>9.105881326831877e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.972139322489966e-07</v>
+        <v>0.0001742910244502127</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.552633981802501e-06</v>
+        <v>0.001363283954560757</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.771632241798216e-06</v>
+        <v>0.000598323589656502</v>
       </c>
       <c r="DW9" t="n">
-        <v>7.597415788040962e-06</v>
+        <v>0.0001794332929421216</v>
       </c>
       <c r="DX9" t="n">
-        <v>4.474205752558191e-07</v>
+        <v>0.001288841478526592</v>
       </c>
       <c r="DY9" t="n">
-        <v>7.525935075136658e-07</v>
+        <v>0.002388164401054382</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.37697861646302e-06</v>
+        <v>0.001108834519982338</v>
       </c>
       <c r="EA9" t="n">
-        <v>6.218289854587056e-06</v>
+        <v>0.002731885993853211</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.820442889766127e-06</v>
+        <v>4.724906466435641e-05</v>
       </c>
       <c r="EC9" t="n">
-        <v>2.077942326650373e-06</v>
+        <v>0.0005394831532612443</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.334001353825442e-08</v>
+        <v>0.0001281740551348776</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.712121957098134e-06</v>
+        <v>0.0001247551408596337</v>
       </c>
       <c r="EF9" t="n">
-        <v>5.534493539016694e-06</v>
+        <v>0.001225195243023336</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.674719533184543e-05</v>
+        <v>4.380149039207026e-05</v>
       </c>
       <c r="EH9" t="n">
-        <v>4.44532133769826e-06</v>
+        <v>0.0001054589083651081</v>
       </c>
       <c r="EI9" t="n">
-        <v>4.804276613867842e-06</v>
+        <v>0.001420519547536969</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.964690227396204e-06</v>
+        <v>0.001090909587219357</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.026147583615966e-05</v>
+        <v>0.0006000093417242169</v>
       </c>
       <c r="EL9" t="n">
-        <v>4.198512215225492e-06</v>
+        <v>0.0008548686746507883</v>
       </c>
       <c r="EM9" t="n">
-        <v>3.689591494548949e-06</v>
+        <v>8.797979717201088e-06</v>
       </c>
       <c r="EN9" t="n">
-        <v>7.432196525769541e-06</v>
+        <v>2.207332727266476e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>5.395605512603652e-06</v>
+        <v>0.001710005686618388</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.21520715765655e-05</v>
+        <v>4.375965363578871e-05</v>
       </c>
       <c r="EQ9" t="n">
-        <v>6.322742933662084e-07</v>
+        <v>0.0002621646272018552</v>
       </c>
       <c r="ER9" t="n">
-        <v>3.169357796650729e-06</v>
+        <v>0.00110101921018213</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.150143725681119e-05</v>
+        <v>0.00070826371666044</v>
       </c>
       <c r="ET9" t="n">
-        <v>4.775598426931538e-06</v>
+        <v>0.003299083327874541</v>
       </c>
       <c r="EU9" t="n">
-        <v>2.901626885432051e-07</v>
+        <v>0.0002650083624757826</v>
       </c>
       <c r="EV9" t="n">
-        <v>3.597270733735058e-06</v>
+        <v>0.001894977875053883</v>
       </c>
       <c r="EW9" t="n">
-        <v>5.536629032576457e-06</v>
+        <v>0.0002861915272660553</v>
       </c>
       <c r="EX9" t="n">
-        <v>6.436971943912795e-06</v>
+        <v>0.0004662072751671076</v>
       </c>
       <c r="EY9" t="n">
-        <v>6.276289241213817e-06</v>
+        <v>0.001077901921235025</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.069577021757141e-06</v>
+        <v>8.224653720390052e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>4.230870217725169e-06</v>
+        <v>0.001620619092136621</v>
       </c>
       <c r="FB9" t="n">
-        <v>4.712564987130463e-06</v>
+        <v>0.0006752299377694726</v>
       </c>
       <c r="FC9" t="n">
-        <v>5.722739842894953e-06</v>
+        <v>0.001320613897405565</v>
       </c>
       <c r="FD9" t="n">
-        <v>7.344639811890374e-07</v>
+        <v>0.0006488896324299276</v>
       </c>
       <c r="FE9" t="n">
-        <v>3.322261818539118e-06</v>
+        <v>4.127334250370041e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>7.617192295583664e-06</v>
+        <v>0.0004599202366080135</v>
       </c>
       <c r="FG9" t="n">
-        <v>4.629255272448063e-06</v>
+        <v>0.00133670074865222</v>
       </c>
       <c r="FH9" t="n">
-        <v>4.41321049038379e-07</v>
+        <v>0.002359297126531601</v>
       </c>
       <c r="FI9" t="n">
-        <v>6.291409135883441e-06</v>
+        <v>0.001144909998401999</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.058428915712284e-05</v>
+        <v>0.0003127563395537436</v>
       </c>
       <c r="FK9" t="n">
-        <v>6.641338586632628e-06</v>
+        <v>0.0003748269518837333</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.863240640886943e-06</v>
+        <v>2.283795038238168e-05</v>
       </c>
       <c r="FM9" t="n">
-        <v>7.447470125043765e-07</v>
+        <v>3.586948150768876e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.144330099123181e-06</v>
+        <v>0.0005050675827078521</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.831726422096835e-06</v>
+        <v>0.0009716622298583388</v>
       </c>
       <c r="FP9" t="n">
-        <v>5.199822226131801e-07</v>
+        <v>0.00161036173813045</v>
       </c>
       <c r="FQ9" t="n">
-        <v>3.610687599575613e-06</v>
+        <v>0.001320699229836464</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.531861357761954e-06</v>
+        <v>0.001575657515786588</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.885801430034917e-05</v>
+        <v>0.001913293497636914</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.810546109481947e-06</v>
+        <v>0.005209374241530895</v>
       </c>
       <c r="FU9" t="n">
-        <v>2.603174152682186e-06</v>
+        <v>0.0006650754367001355</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.826542640832486e-06</v>
+        <v>0.0003039574949070811</v>
       </c>
       <c r="FW9" t="n">
-        <v>5.936491334068705e-07</v>
+        <v>0.001838687108829618</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.097362996915763e-06</v>
+        <v>0.0002206550416303799</v>
       </c>
       <c r="FY9" t="n">
-        <v>5.088491889182478e-06</v>
+        <v>0.0005741876666434109</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.811562833609059e-05</v>
+        <v>0.002204882213845849</v>
       </c>
       <c r="GA9" t="n">
-        <v>9.062193385034334e-06</v>
+        <v>0.0006174585432745516</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.231051464856137e-05</v>
+        <v>0.001650236314162612</v>
       </c>
       <c r="GC9" t="n">
-        <v>5.850944262419944e-07</v>
+        <v>0.0001514619798399508</v>
       </c>
       <c r="GD9" t="n">
-        <v>4.135646122449543e-06</v>
+        <v>0.001425002468749881</v>
       </c>
       <c r="GE9" t="n">
-        <v>1.060444674294558e-06</v>
+        <v>0.002387015148997307</v>
       </c>
       <c r="GF9" t="n">
-        <v>4.47538741354947e-06</v>
+        <v>0.001949380966834724</v>
       </c>
       <c r="GG9" t="n">
-        <v>4.545242404674354e-07</v>
+        <v>4.746866034111008e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.538310405332595e-05</v>
+        <v>0.0003398451372049749</v>
       </c>
       <c r="B10" t="n">
-        <v>3.862473749904893e-05</v>
+        <v>0.007682823110371828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002833621692843735</v>
+        <v>0.0003645622928161174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001293874229304492</v>
+        <v>0.004258545581251383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001298829738516361</v>
+        <v>0.001432075747288764</v>
       </c>
       <c r="F10" t="n">
-        <v>8.505158803018276e-06</v>
+        <v>0.001157523016445339</v>
       </c>
       <c r="G10" t="n">
-        <v>3.699032095028087e-05</v>
+        <v>0.0003656451299320906</v>
       </c>
       <c r="H10" t="n">
-        <v>7.393474515993148e-05</v>
+        <v>0.0006668134592473507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002169607469113544</v>
+        <v>0.0009229629067704082</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3397813240299e-05</v>
+        <v>0.0008361571235582232</v>
       </c>
       <c r="K10" t="n">
-        <v>2.896631121984683e-05</v>
+        <v>0.005081954877823591</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003110520192421973</v>
+        <v>0.0006036170525476336</v>
       </c>
       <c r="M10" t="n">
-        <v>7.62400304665789e-05</v>
+        <v>0.004334086552262306</v>
       </c>
       <c r="N10" t="n">
-        <v>5.428003714769147e-05</v>
+        <v>0.00288806390017271</v>
       </c>
       <c r="O10" t="n">
-        <v>6.373400083248271e-07</v>
+        <v>0.002242628484964371</v>
       </c>
       <c r="P10" t="n">
-        <v>6.459410360548645e-05</v>
+        <v>0.0003317757800687104</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0001373742416035384</v>
+        <v>0.0004270879144314677</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0002561564324423671</v>
+        <v>0.0001994873309740797</v>
       </c>
       <c r="S10" t="n">
-        <v>6.857022981421323e-06</v>
+        <v>0.0002887157897930592</v>
       </c>
       <c r="T10" t="n">
-        <v>9.391313506057486e-05</v>
+        <v>0.001198558718897402</v>
       </c>
       <c r="U10" t="n">
-        <v>1.327080462942831e-05</v>
+        <v>0.0003586836392059922</v>
       </c>
       <c r="V10" t="n">
-        <v>5.886510189156979e-05</v>
+        <v>0.0009354843059554696</v>
       </c>
       <c r="W10" t="n">
-        <v>3.443199602770619e-05</v>
+        <v>0.0004050759016536176</v>
       </c>
       <c r="X10" t="n">
-        <v>8.363954293599818e-06</v>
+        <v>0.000903816195204854</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.743948450894095e-05</v>
+        <v>0.0007835617288947105</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.281831570551731e-05</v>
+        <v>0.0002646597858984023</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.048522143624723e-05</v>
+        <v>0.0002187519130529836</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.208804314956069e-05</v>
+        <v>0.0009302382823079824</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.379227332014125e-06</v>
+        <v>0.001104541006498039</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.242405232915189e-06</v>
+        <v>8.738502947380766e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.931625178665854e-05</v>
+        <v>0.0003559732576832175</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.065295236912789e-05</v>
+        <v>0.0007634946377947927</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.166315092239529e-05</v>
+        <v>0.0004040880012325943</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.403495454927906e-05</v>
+        <v>0.0001256185641977936</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.162308272905648e-05</v>
+        <v>6.86635758029297e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.307920845458284e-05</v>
+        <v>0.0002690330147743225</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.436991442460567e-05</v>
+        <v>0.000404006423195824</v>
       </c>
       <c r="AL10" t="n">
-        <v>6.079756713006645e-05</v>
+        <v>0.0006483487668447196</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.261146437376738e-05</v>
+        <v>0.0004203225835226476</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.604578912723809e-05</v>
+        <v>0.0003852804657071829</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.529481025703717e-05</v>
+        <v>0.0009293300099670887</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.065020326990634e-05</v>
+        <v>0.0009431001381017268</v>
       </c>
       <c r="AQ10" t="n">
-        <v>6.388552719727159e-06</v>
+        <v>0.000337213248712942</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.671864447416738e-05</v>
+        <v>0.0006217930349521339</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.594800207589287e-06</v>
+        <v>0.0002320444182259962</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.693997809430584e-05</v>
+        <v>0.0008303722133859992</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.947923636995256e-05</v>
+        <v>0.00620197644457221</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0002042643463937566</v>
+        <v>0.000391313573345542</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.296516221482307e-05</v>
+        <v>0.0007013007416389883</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.894163142424077e-05</v>
+        <v>0.001038481597788632</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0001199115940835327</v>
+        <v>0.0008914402569644153</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.271649671252817e-05</v>
+        <v>0.0002250958204967901</v>
       </c>
       <c r="BA10" t="n">
-        <v>3.942715557059273e-05</v>
+        <v>0.0002406058047199622</v>
       </c>
       <c r="BB10" t="n">
-        <v>7.200126128736883e-05</v>
+        <v>0.000253468519076705</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.570959622971714e-07</v>
+        <v>0.0001552458415972069</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.088965084112715e-05</v>
+        <v>0.001368708093650639</v>
       </c>
       <c r="BE10" t="n">
-        <v>7.156302308430895e-05</v>
+        <v>0.001284704427234828</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.051820436259732e-05</v>
+        <v>0.0006820668932050467</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.636154385982081e-05</v>
+        <v>0.00235876627266407</v>
       </c>
       <c r="BH10" t="n">
-        <v>7.123495015548542e-05</v>
+        <v>0.001784836407750845</v>
       </c>
       <c r="BI10" t="n">
-        <v>3.807363100349903e-05</v>
+        <v>0.0009361437987536192</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.468319169362076e-05</v>
+        <v>0.0004186398000456393</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.419037082290743e-05</v>
+        <v>0.0002682491613086313</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.858449533960083e-06</v>
+        <v>0.001361937262117863</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.082759808923583e-06</v>
+        <v>0.001747072557918727</v>
       </c>
       <c r="BN10" t="n">
-        <v>6.594987644348294e-05</v>
+        <v>0.0005739213665947318</v>
       </c>
       <c r="BO10" t="n">
-        <v>9.608573236619122e-06</v>
+        <v>0.0002878897939808667</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.998853258555755e-05</v>
+        <v>0.001231777248904109</v>
       </c>
       <c r="BQ10" t="n">
-        <v>4.227665158396121e-06</v>
+        <v>0.0009481868473812938</v>
       </c>
       <c r="BR10" t="n">
-        <v>4.24657337134704e-05</v>
+        <v>7.591358735226095e-05</v>
       </c>
       <c r="BS10" t="n">
-        <v>9.413078805664554e-05</v>
+        <v>0.0002878014347516</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.716661689803004e-05</v>
+        <v>0.0006530745886266232</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.720519296417478e-05</v>
+        <v>0.0007144077681005001</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.258049724128796e-05</v>
+        <v>0.003086691722273827</v>
       </c>
       <c r="BW10" t="n">
-        <v>8.067748422035947e-05</v>
+        <v>0.0002033903874689713</v>
       </c>
       <c r="BX10" t="n">
-        <v>3.855827526422217e-05</v>
+        <v>0.0005953079089522362</v>
       </c>
       <c r="BY10" t="n">
-        <v>3.29286849591881e-05</v>
+        <v>0.0003304595011286438</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.614039865671657e-05</v>
+        <v>0.002023548586294055</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.462103293510154e-05</v>
+        <v>0.0001538613287266344</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.744852124829777e-05</v>
+        <v>0.0002411735040368512</v>
       </c>
       <c r="CC10" t="n">
-        <v>9.273977775592357e-05</v>
+        <v>0.0002986190083902329</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.869598781922832e-05</v>
+        <v>0.0004928509588353336</v>
       </c>
       <c r="CE10" t="n">
-        <v>3.726261638803408e-05</v>
+        <v>0.001242543570697308</v>
       </c>
       <c r="CF10" t="n">
-        <v>5.381315713748336e-05</v>
+        <v>0.000369179411791265</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.9369688743609e-05</v>
+        <v>0.0003953726263716817</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.485331242496613e-05</v>
+        <v>0.0002424397971481085</v>
       </c>
       <c r="CI10" t="n">
-        <v>2.853683145076502e-05</v>
+        <v>0.0004558716609608382</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6.528960057039512e-07</v>
+        <v>0.0003013404202647507</v>
       </c>
       <c r="CK10" t="n">
-        <v>2.065119770122692e-05</v>
+        <v>2.590475196484476e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.120134715572931e-05</v>
+        <v>0.0001624914002604783</v>
       </c>
       <c r="CM10" t="n">
-        <v>2.697248783078976e-05</v>
+        <v>0.001030611456371844</v>
       </c>
       <c r="CN10" t="n">
-        <v>8.975807577371597e-05</v>
+        <v>0.001113432692363858</v>
       </c>
       <c r="CO10" t="n">
-        <v>2.9725215426879e-05</v>
+        <v>0.0005718095926567912</v>
       </c>
       <c r="CP10" t="n">
-        <v>2.014845995290671e-05</v>
+        <v>0.001700677210465074</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2.707483690755907e-05</v>
+        <v>0.001238953089341521</v>
       </c>
       <c r="CR10" t="n">
-        <v>3.712927355081774e-05</v>
+        <v>0.0009504096815362573</v>
       </c>
       <c r="CS10" t="n">
-        <v>6.242826657398837e-06</v>
+        <v>0.0004466317186597735</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.030876592267305e-05</v>
+        <v>0.00137670524418354</v>
       </c>
       <c r="CU10" t="n">
-        <v>7.358795846812427e-05</v>
+        <v>1.368153971270658e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.92620100278873e-05</v>
+        <v>0.0004733697278425097</v>
       </c>
       <c r="CW10" t="n">
-        <v>2.773624328256119e-05</v>
+        <v>0.0009247626876458526</v>
       </c>
       <c r="CX10" t="n">
-        <v>4.156264913035557e-05</v>
+        <v>0.0004767855862155557</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.035463694483042e-05</v>
+        <v>0.0007645433652214706</v>
       </c>
       <c r="CZ10" t="n">
-        <v>4.848134994972497e-05</v>
+        <v>0.0001913070300361142</v>
       </c>
       <c r="DA10" t="n">
-        <v>2.559242966526654e-05</v>
+        <v>0.0004408362146932632</v>
       </c>
       <c r="DB10" t="n">
-        <v>4.294000973459333e-06</v>
+        <v>0.0002652405528351665</v>
       </c>
       <c r="DC10" t="n">
-        <v>2.300779669894837e-05</v>
+        <v>1.955309562617913e-05</v>
       </c>
       <c r="DD10" t="n">
-        <v>3.617929178290069e-05</v>
+        <v>8.058019011514261e-05</v>
       </c>
       <c r="DE10" t="n">
-        <v>5.447502189781517e-05</v>
+        <v>0.0003884175966959447</v>
       </c>
       <c r="DF10" t="n">
-        <v>7.969815487740561e-05</v>
+        <v>0.0009753520716913044</v>
       </c>
       <c r="DG10" t="n">
-        <v>7.510305294999853e-05</v>
+        <v>0.0003988920943811536</v>
       </c>
       <c r="DH10" t="n">
-        <v>7.520074723288417e-05</v>
+        <v>0.001233040005899966</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.726787326741032e-05</v>
+        <v>0.0004634656943380833</v>
       </c>
       <c r="DJ10" t="n">
-        <v>6.406257307389751e-05</v>
+        <v>0.0004674597876146436</v>
       </c>
       <c r="DK10" t="n">
-        <v>6.222257070476189e-05</v>
+        <v>0.0005301583441905677</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.585466088727117e-05</v>
+        <v>0.0002727916580624878</v>
       </c>
       <c r="DM10" t="n">
-        <v>4.092145900358446e-05</v>
+        <v>0.0002517619868740439</v>
       </c>
       <c r="DN10" t="n">
-        <v>2.083888466586359e-05</v>
+        <v>0.001130905118770897</v>
       </c>
       <c r="DO10" t="n">
-        <v>3.295536953373812e-05</v>
+        <v>0.0004252180806361139</v>
       </c>
       <c r="DP10" t="n">
-        <v>4.360228922450915e-05</v>
+        <v>0.0006906245835125446</v>
       </c>
       <c r="DQ10" t="n">
-        <v>3.062939867959358e-05</v>
+        <v>0.0002703723730519414</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.538175638415851e-05</v>
+        <v>0.0004227625904604793</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.78588504443178e-05</v>
+        <v>0.0007887901738286018</v>
       </c>
       <c r="DT10" t="n">
-        <v>2.988979758811183e-06</v>
+        <v>0.0002016067883232608</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.068300818791613e-05</v>
+        <v>1.479670027038082e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>5.561434591072612e-05</v>
+        <v>5.328846600605175e-05</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.181144671136281e-05</v>
+        <v>0.0003515156568028033</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.402087142807432e-06</v>
+        <v>0.0001462053915020078</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.914325887104496e-05</v>
+        <v>0.0006648288108408451</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.380807589157484e-05</v>
+        <v>0.0005076329689472914</v>
       </c>
       <c r="EA10" t="n">
-        <v>4.254017403582111e-05</v>
+        <v>0.001072462764568627</v>
       </c>
       <c r="EB10" t="n">
-        <v>3.364006261108443e-06</v>
+        <v>0.0007534337346442044</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.62786636792589e-05</v>
+        <v>8.759109186939895e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>6.10624992987141e-05</v>
+        <v>8.024074486456811e-05</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.656715539866127e-05</v>
+        <v>0.0001465102250222117</v>
       </c>
       <c r="EF10" t="n">
-        <v>2.435983697068878e-05</v>
+        <v>0.0003315541543997824</v>
       </c>
       <c r="EG10" t="n">
-        <v>4.065151733811945e-05</v>
+        <v>0.0005707239033654332</v>
       </c>
       <c r="EH10" t="n">
-        <v>3.663223105832003e-05</v>
+        <v>2.932961615442764e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>5.482044343807502e-06</v>
+        <v>0.0005125158932060003</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.920371687447187e-06</v>
+        <v>0.0004258229164406657</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.971037793031428e-05</v>
+        <v>0.0002511290367692709</v>
       </c>
       <c r="EL10" t="n">
-        <v>5.246069122222252e-06</v>
+        <v>0.0002498066751286387</v>
       </c>
       <c r="EM10" t="n">
-        <v>3.159215702908114e-05</v>
+        <v>0.0003177192993462086</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.600283940206282e-05</v>
+        <v>7.745633774902672e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>4.503626405494288e-05</v>
+        <v>0.0006081609753891826</v>
       </c>
       <c r="EP10" t="n">
-        <v>7.552062925242353e-06</v>
+        <v>0.0008095783996395767</v>
       </c>
       <c r="EQ10" t="n">
-        <v>2.064147520286497e-05</v>
+        <v>4.307854396756738e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>4.172361877863295e-05</v>
+        <v>0.0007837355369701982</v>
       </c>
       <c r="ES10" t="n">
-        <v>1.210969094245229e-05</v>
+        <v>0.0004263879091013223</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.229286863235757e-05</v>
+        <v>0.00204404816031456</v>
       </c>
       <c r="EU10" t="n">
-        <v>3.159061816404574e-05</v>
+        <v>0.0004662984283640981</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.223292019858491e-05</v>
+        <v>0.0002437482762616128</v>
       </c>
       <c r="EW10" t="n">
-        <v>6.715858762618154e-05</v>
+        <v>0.000213059174711816</v>
       </c>
       <c r="EX10" t="n">
-        <v>8.521710697095841e-06</v>
+        <v>0.0003112283884547651</v>
       </c>
       <c r="EY10" t="n">
-        <v>3.226295666536316e-05</v>
+        <v>0.0009458811255171895</v>
       </c>
       <c r="EZ10" t="n">
-        <v>4.849816468777135e-05</v>
+        <v>0.0001992152974708006</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.37067363539245e-05</v>
+        <v>0.0005727691459469497</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.834961403801572e-05</v>
+        <v>3.333209315314889e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>1.927542689372785e-05</v>
+        <v>0.000630558468401432</v>
       </c>
       <c r="FD10" t="n">
-        <v>5.044068984716432e-06</v>
+        <v>0.0003279831144027412</v>
       </c>
       <c r="FE10" t="n">
-        <v>2.984122147609014e-05</v>
+        <v>3.69184635928832e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>5.004431295674294e-05</v>
+        <v>0.0001520237274235114</v>
       </c>
       <c r="FG10" t="n">
-        <v>4.123677626921562e-06</v>
+        <v>0.000304623827105388</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.570907443237957e-06</v>
+        <v>0.0002726053935475647</v>
       </c>
       <c r="FI10" t="n">
-        <v>3.069041486014612e-05</v>
+        <v>5.950561535428278e-05</v>
       </c>
       <c r="FJ10" t="n">
-        <v>6.701287929899991e-06</v>
+        <v>0.0007074729073792696</v>
       </c>
       <c r="FK10" t="n">
-        <v>3.509166344883852e-05</v>
+        <v>0.0003782735439017415</v>
       </c>
       <c r="FL10" t="n">
-        <v>3.032219501619693e-05</v>
+        <v>0.0004841452464461327</v>
       </c>
       <c r="FM10" t="n">
-        <v>2.083332765323576e-05</v>
+        <v>0.000251195568125695</v>
       </c>
       <c r="FN10" t="n">
-        <v>2.494294221833115e-06</v>
+        <v>0.0002428444277029485</v>
       </c>
       <c r="FO10" t="n">
-        <v>4.06345643568784e-05</v>
+        <v>0.0004797662841156125</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.956120649992954e-05</v>
+        <v>0.0003534687566570938</v>
       </c>
       <c r="FQ10" t="n">
-        <v>6.820464477641508e-05</v>
+        <v>0.0002557676925789565</v>
       </c>
       <c r="FR10" t="n">
-        <v>2.908839815063402e-05</v>
+        <v>3.827324690064415e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>3.531631227815524e-05</v>
+        <v>0.001202581450343132</v>
       </c>
       <c r="FT10" t="n">
-        <v>2.170112929889001e-05</v>
+        <v>0.0009054509573616087</v>
       </c>
       <c r="FU10" t="n">
-        <v>2.010206844715867e-05</v>
+        <v>0.0001554528280394152</v>
       </c>
       <c r="FV10" t="n">
-        <v>2.677793963812292e-05</v>
+        <v>0.0001943999959621578</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.012077973427949e-06</v>
+        <v>0.0001740846782922745</v>
       </c>
       <c r="FX10" t="n">
-        <v>2.89876879833173e-05</v>
+        <v>0.0005041386466473341</v>
       </c>
       <c r="FY10" t="n">
-        <v>3.629880302469246e-05</v>
+        <v>0.0007976675988174975</v>
       </c>
       <c r="FZ10" t="n">
-        <v>4.948466448695399e-05</v>
+        <v>0.0007186910952441394</v>
       </c>
       <c r="GA10" t="n">
-        <v>3.895327154168626e-06</v>
+        <v>4.474377783481032e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>6.548358214786276e-05</v>
+        <v>0.0002350834110984579</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.64116827363614e-05</v>
+        <v>0.0001772811228875071</v>
       </c>
       <c r="GD10" t="n">
-        <v>6.244189717108384e-05</v>
+        <v>0.0009153109276667237</v>
       </c>
       <c r="GE10" t="n">
-        <v>4.215261287754402e-05</v>
+        <v>0.001439720625057817</v>
       </c>
       <c r="GF10" t="n">
-        <v>8.338423504028469e-05</v>
+        <v>4.226402961649001e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.863650822997442e-06</v>
+        <v>0.0001380805770168081</v>
       </c>
     </row>
     <row r="11">
@@ -6694,2278 +6694,2278 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.083632999472229e-08</v>
+        <v>1.949356231989441e-09</v>
       </c>
       <c r="B12" t="n">
-        <v>4.856894975091564e-08</v>
+        <v>6.791522011440065e-09</v>
       </c>
       <c r="C12" t="n">
-        <v>2.86865486032184e-07</v>
+        <v>4.767301553521008e-10</v>
       </c>
       <c r="D12" t="n">
-        <v>8.938890516674292e-08</v>
+        <v>1.312607622594442e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>2.500989637610473e-07</v>
+        <v>1.20728738117748e-09</v>
       </c>
       <c r="F12" t="n">
-        <v>1.042865989120401e-07</v>
+        <v>2.931345999268586e-10</v>
       </c>
       <c r="G12" t="n">
-        <v>3.123437508634197e-08</v>
+        <v>9.02450669748589e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>1.461633125643402e-08</v>
+        <v>4.84286166724246e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>1.713023181082463e-07</v>
+        <v>3.787005709021685e-10</v>
       </c>
       <c r="J12" t="n">
-        <v>8.845242405186582e-08</v>
+        <v>3.31163918509958e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>4.349650595258936e-08</v>
+        <v>3.956273086913598e-09</v>
       </c>
       <c r="L12" t="n">
-        <v>3.215050412563869e-07</v>
+        <v>2.892575068358383e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17446404601651e-07</v>
+        <v>7.022121550903648e-09</v>
       </c>
       <c r="N12" t="n">
-        <v>1.972171048691962e-07</v>
+        <v>2.674234833577316e-09</v>
       </c>
       <c r="O12" t="n">
-        <v>3.003651727340184e-08</v>
+        <v>3.329950759578537e-09</v>
       </c>
       <c r="P12" t="n">
-        <v>8.735690215644354e-08</v>
+        <v>2.185362557582948e-09</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.032463536887462e-08</v>
+        <v>3.516277935489143e-09</v>
       </c>
       <c r="R12" t="n">
-        <v>1.889080607497817e-07</v>
+        <v>1.827567819301379e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>1.785784853325367e-08</v>
+        <v>4.709210799092034e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>5.084648790898427e-08</v>
+        <v>1.084835665743356e-09</v>
       </c>
       <c r="U12" t="n">
-        <v>3.032359074950364e-08</v>
+        <v>8.577450971714029e-10</v>
       </c>
       <c r="V12" t="n">
-        <v>6.817136011250113e-08</v>
+        <v>9.115038723805924e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>3.56285276836843e-08</v>
+        <v>1.810514183020473e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>5.230842425874016e-09</v>
+        <v>8.181496036208102e-10</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.114281347890937e-08</v>
+        <v>4.305538148230426e-09</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.596700157819214e-09</v>
+        <v>3.36177363724488e-10</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.432417848894033e-10</v>
+        <v>1.787293646415833e-09</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.959635901968795e-08</v>
+        <v>4.922144913876991e-10</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.899944000020696e-08</v>
+        <v>5.567720728905101e-10</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.431187043493992e-08</v>
+        <v>1.306547647850209e-10</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.025209333567091e-08</v>
+        <v>1.608657873575225e-09</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.430237344697161e-08</v>
+        <v>2.287150246971237e-09</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.287868478527798e-08</v>
+        <v>1.460023768551366e-09</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.087547912310583e-08</v>
+        <v>1.049491049620599e-09</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.15693538305095e-07</v>
+        <v>7.57585993937937e-10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6.091044468803375e-08</v>
+        <v>1.510099684187693e-10</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.351319323106281e-08</v>
+        <v>9.020343916255058e-10</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.385884023681228e-08</v>
+        <v>1.100315949464914e-09</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.900009204471644e-08</v>
+        <v>4.96897412105568e-10</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.589083519273117e-08</v>
+        <v>7.537919732847342e-10</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.406136800914283e-08</v>
+        <v>6.466611690569835e-10</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.115400891649188e-07</v>
+        <v>7.539153190627701e-10</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8.490408376360392e-09</v>
+        <v>1.609893218734726e-09</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.743832266422942e-08</v>
+        <v>6.882308611899646e-10</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.171772095493907e-08</v>
+        <v>1.168964813835771e-09</v>
       </c>
       <c r="AT12" t="n">
-        <v>6.429630872162306e-08</v>
+        <v>8.542097584829378e-11</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.582590059001632e-08</v>
+        <v>3.707211870818128e-09</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.347297882148268e-07</v>
+        <v>4.695776545382557e-10</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.549477429170111e-08</v>
+        <v>5.595603980168562e-09</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.869679960326721e-08</v>
+        <v>2.566833690043069e-10</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.146106214378051e-07</v>
+        <v>8.989588518026892e-10</v>
       </c>
       <c r="AZ12" t="n">
-        <v>5.605169661748732e-08</v>
+        <v>6.392039120228787e-10</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.699869566275993e-08</v>
+        <v>5.992654150688281e-10</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.576935382274769e-08</v>
+        <v>2.516526764750893e-09</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.917131520201565e-08</v>
+        <v>1.142385297470128e-09</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.553915206566671e-08</v>
+        <v>1.568237761873092e-10</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.507715338306298e-08</v>
+        <v>1.246015624012387e-09</v>
       </c>
       <c r="BF12" t="n">
-        <v>6.618582659712047e-08</v>
+        <v>1.139214611534101e-09</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.122888377835807e-07</v>
+        <v>2.218508932116947e-09</v>
       </c>
       <c r="BH12" t="n">
-        <v>7.085164810405331e-08</v>
+        <v>9.765522834825902e-10</v>
       </c>
       <c r="BI12" t="n">
-        <v>3.297484951758634e-08</v>
+        <v>1.802121785132726e-09</v>
       </c>
       <c r="BJ12" t="n">
-        <v>4.971164102585135e-08</v>
+        <v>5.114559886720826e-09</v>
       </c>
       <c r="BK12" t="n">
-        <v>9.652118393432829e-08</v>
+        <v>1.570657215399507e-10</v>
       </c>
       <c r="BL12" t="n">
-        <v>5.707505579266581e-08</v>
+        <v>5.355334509182796e-10</v>
       </c>
       <c r="BM12" t="n">
-        <v>9.497284736426082e-09</v>
+        <v>3.351353916603017e-10</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.371792563986673e-07</v>
+        <v>1.433538288075908e-09</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.923368924712122e-08</v>
+        <v>1.132037352746806e-09</v>
       </c>
       <c r="BP12" t="n">
-        <v>6.049893386261829e-08</v>
+        <v>1.011807526651864e-09</v>
       </c>
       <c r="BQ12" t="n">
-        <v>4.039417333956408e-08</v>
+        <v>7.886216124575185e-10</v>
       </c>
       <c r="BR12" t="n">
-        <v>5.119171220258067e-08</v>
+        <v>7.221327424922208e-10</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.643940805706734e-08</v>
+        <v>1.486686329599252e-10</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.495079165498737e-08</v>
+        <v>6.938855046101366e-11</v>
       </c>
       <c r="BU12" t="n">
-        <v>2.322622094652615e-10</v>
+        <v>2.851838210027324e-10</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.676694338925699e-09</v>
+        <v>2.044154401303899e-09</v>
       </c>
       <c r="BW12" t="n">
-        <v>4.864501335077875e-08</v>
+        <v>8.721945388145969e-10</v>
       </c>
       <c r="BX12" t="n">
-        <v>7.515237321342738e-09</v>
+        <v>2.301582924246759e-09</v>
       </c>
       <c r="BY12" t="n">
-        <v>7.068439344948274e-08</v>
+        <v>1.57919599619305e-09</v>
       </c>
       <c r="BZ12" t="n">
-        <v>3.896486688859113e-08</v>
+        <v>4.254712970830354e-10</v>
       </c>
       <c r="CA12" t="n">
-        <v>2.180366109882925e-08</v>
+        <v>2.074823424180749e-09</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.916619301629453e-08</v>
+        <v>9.526490707401081e-10</v>
       </c>
       <c r="CC12" t="n">
-        <v>2.103288210264509e-08</v>
+        <v>1.960963613711897e-09</v>
       </c>
       <c r="CD12" t="n">
-        <v>6.056498591533455e-08</v>
+        <v>2.438420576567069e-10</v>
       </c>
       <c r="CE12" t="n">
-        <v>4.513263363037368e-08</v>
+        <v>1.222284384816419e-09</v>
       </c>
       <c r="CF12" t="n">
-        <v>4.641922046744185e-08</v>
+        <v>1.329848564601832e-09</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.477003408467681e-08</v>
+        <v>1.295059948169808e-09</v>
       </c>
       <c r="CH12" t="n">
-        <v>7.07677898503789e-08</v>
+        <v>7.144858038543589e-10</v>
       </c>
       <c r="CI12" t="n">
-        <v>4.534156161639658e-08</v>
+        <v>1.153553710886435e-10</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2.821198918923074e-08</v>
+        <v>8.522372252350863e-10</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.626096590712223e-08</v>
+        <v>5.392030155704219e-10</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.315486386488374e-08</v>
+        <v>1.361474155636699e-09</v>
       </c>
       <c r="CM12" t="n">
-        <v>7.326419648734372e-08</v>
+        <v>1.210858635580792e-09</v>
       </c>
       <c r="CN12" t="n">
-        <v>1.126388795569255e-07</v>
+        <v>1.475630284630824e-09</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.704841861600471e-08</v>
+        <v>1.049480363723987e-10</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.529683567649045e-08</v>
+        <v>3.149337457486467e-09</v>
       </c>
       <c r="CQ12" t="n">
-        <v>8.195952716505417e-08</v>
+        <v>1.527853621396957e-09</v>
       </c>
       <c r="CR12" t="n">
-        <v>3.292979755542547e-08</v>
+        <v>9.152862356920366e-10</v>
       </c>
       <c r="CS12" t="n">
-        <v>3.220769784206823e-08</v>
+        <v>1.610078181890628e-09</v>
       </c>
       <c r="CT12" t="n">
-        <v>5.329842878154523e-08</v>
+        <v>4.230755745737724e-09</v>
       </c>
       <c r="CU12" t="n">
-        <v>4.039933898525305e-08</v>
+        <v>6.769036442477727e-10</v>
       </c>
       <c r="CV12" t="n">
-        <v>6.836280164179698e-08</v>
+        <v>3.20201254400132e-10</v>
       </c>
       <c r="CW12" t="n">
-        <v>5.596611885039238e-08</v>
+        <v>1.127033799619426e-09</v>
       </c>
       <c r="CX12" t="n">
-        <v>6.023910259500553e-08</v>
+        <v>1.107115954468441e-09</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.126976378884592e-08</v>
+        <v>2.26420215909684e-09</v>
       </c>
       <c r="CZ12" t="n">
-        <v>7.632864651441196e-08</v>
+        <v>9.482244989200694e-10</v>
       </c>
       <c r="DA12" t="n">
-        <v>5.300268668406716e-08</v>
+        <v>3.069797471777491e-10</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.290556195243653e-08</v>
+        <v>7.937080992448386e-10</v>
       </c>
       <c r="DC12" t="n">
-        <v>2.003754939750024e-09</v>
+        <v>6.925712781047366e-10</v>
       </c>
       <c r="DD12" t="n">
-        <v>3.215690114188874e-08</v>
+        <v>1.022580908838222e-09</v>
       </c>
       <c r="DE12" t="n">
-        <v>3.687531169305203e-09</v>
+        <v>1.207331679076162e-09</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.111376460334213e-07</v>
+        <v>8.402268880658426e-10</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.443710715420821e-07</v>
+        <v>2.688444578069493e-09</v>
       </c>
       <c r="DH12" t="n">
-        <v>6.542933306263876e-08</v>
+        <v>9.643161824612889e-09</v>
       </c>
       <c r="DI12" t="n">
-        <v>3.263946268816653e-08</v>
+        <v>3.63928975843919e-09</v>
       </c>
       <c r="DJ12" t="n">
-        <v>3.683112481667195e-09</v>
+        <v>2.174073143734745e-10</v>
       </c>
       <c r="DK12" t="n">
-        <v>3.519591729173044e-08</v>
+        <v>2.026192769122304e-09</v>
       </c>
       <c r="DL12" t="n">
-        <v>3.773595125267093e-08</v>
+        <v>5.073284459200522e-09</v>
       </c>
       <c r="DM12" t="n">
-        <v>1.871364574412837e-08</v>
+        <v>5.851209516904987e-10</v>
       </c>
       <c r="DN12" t="n">
-        <v>2.205242566333254e-08</v>
+        <v>8.300785059311977e-11</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.954449935226421e-08</v>
+        <v>4.051187163511827e-10</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.769494595293963e-08</v>
+        <v>2.106786300970498e-09</v>
       </c>
       <c r="DQ12" t="n">
-        <v>3.185759567259083e-08</v>
+        <v>8.092748138288641e-10</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.519034142916098e-08</v>
+        <v>1.530101600977218e-09</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.861162684553165e-08</v>
+        <v>1.504510627192701e-09</v>
       </c>
       <c r="DT12" t="n">
-        <v>9.151094104709045e-09</v>
+        <v>3.938074311093942e-10</v>
       </c>
       <c r="DU12" t="n">
-        <v>8.941877638335427e-08</v>
+        <v>2.074340421653886e-10</v>
       </c>
       <c r="DV12" t="n">
-        <v>3.591028274740893e-08</v>
+        <v>2.237646512526226e-09</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.795932824677493e-08</v>
+        <v>4.87518803105047e-10</v>
       </c>
       <c r="DX12" t="n">
-        <v>6.777887051612197e-08</v>
+        <v>1.284723993855152e-09</v>
       </c>
       <c r="DY12" t="n">
-        <v>4.464304836915289e-08</v>
+        <v>2.019641343053991e-09</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.689371664781447e-08</v>
+        <v>7.29185156700396e-10</v>
       </c>
       <c r="EA12" t="n">
-        <v>8.470395584936341e-08</v>
+        <v>2.327652293132587e-09</v>
       </c>
       <c r="EB12" t="n">
-        <v>4.121443808458025e-08</v>
+        <v>2.225960971102836e-09</v>
       </c>
       <c r="EC12" t="n">
-        <v>6.022115250914339e-09</v>
+        <v>2.357125050700404e-10</v>
       </c>
       <c r="ED12" t="n">
-        <v>2.809331611786092e-08</v>
+        <v>1.144100814087778e-09</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.865368659537125e-08</v>
+        <v>1.806514382529656e-10</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.01606232760787e-07</v>
+        <v>5.316080908812637e-11</v>
       </c>
       <c r="EG12" t="n">
-        <v>2.172334845340629e-08</v>
+        <v>5.41262812348009e-10</v>
       </c>
       <c r="EH12" t="n">
-        <v>6.420714271371253e-08</v>
+        <v>7.380185906846748e-10</v>
       </c>
       <c r="EI12" t="n">
-        <v>1.620711564953581e-08</v>
+        <v>1.645336866751279e-09</v>
       </c>
       <c r="EJ12" t="n">
-        <v>8.079804558747128e-08</v>
+        <v>1.203225297174981e-09</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.436978180890947e-07</v>
+        <v>4.928459862441059e-10</v>
       </c>
       <c r="EL12" t="n">
-        <v>8.852918398360998e-09</v>
+        <v>1.357757462017162e-09</v>
       </c>
       <c r="EM12" t="n">
-        <v>4.375293016778414e-09</v>
+        <v>4.374995365985512e-10</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.23144161534583e-09</v>
+        <v>7.980026639486937e-10</v>
       </c>
       <c r="EO12" t="n">
-        <v>2.480123839632142e-08</v>
+        <v>3.069260678945085e-10</v>
       </c>
       <c r="EP12" t="n">
-        <v>2.685952438241657e-08</v>
+        <v>2.27845284306305e-10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>5.914898792980239e-08</v>
+        <v>1.059688115034874e-09</v>
       </c>
       <c r="ER12" t="n">
-        <v>3.45154624881161e-08</v>
+        <v>5.355588750255436e-10</v>
       </c>
       <c r="ES12" t="n">
-        <v>1.777068092678746e-08</v>
+        <v>4.068978043392235e-09</v>
       </c>
       <c r="ET12" t="n">
-        <v>7.296046078408835e-08</v>
+        <v>5.266844183005048e-10</v>
       </c>
       <c r="EU12" t="n">
-        <v>2.096754947444879e-08</v>
+        <v>6.302109945011125e-10</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.638284352623032e-08</v>
+        <v>2.153959677286821e-09</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.598814947101346e-08</v>
+        <v>1.603310817444026e-10</v>
       </c>
       <c r="EX12" t="n">
-        <v>7.60016973799793e-08</v>
+        <v>5.473126812871598e-11</v>
       </c>
       <c r="EY12" t="n">
-        <v>5.275775549762329e-08</v>
+        <v>1.114104697386153e-09</v>
       </c>
       <c r="EZ12" t="n">
-        <v>5.717028273011238e-08</v>
+        <v>1.13815734614775e-09</v>
       </c>
       <c r="FA12" t="n">
-        <v>2.768010709530699e-08</v>
+        <v>1.960816398138832e-09</v>
       </c>
       <c r="FB12" t="n">
-        <v>4.548291343553501e-08</v>
+        <v>5.264430003038001e-10</v>
       </c>
       <c r="FC12" t="n">
-        <v>3.960024486104885e-08</v>
+        <v>2.633515627792349e-10</v>
       </c>
       <c r="FD12" t="n">
-        <v>2.652317832030349e-08</v>
+        <v>9.327317807006352e-10</v>
       </c>
       <c r="FE12" t="n">
-        <v>2.306095403525887e-08</v>
+        <v>7.023244208426149e-10</v>
       </c>
       <c r="FF12" t="n">
-        <v>3.017981242692258e-08</v>
+        <v>1.485219391916814e-09</v>
       </c>
       <c r="FG12" t="n">
-        <v>4.988189772348051e-08</v>
+        <v>4.717884416471918e-10</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.610238520299845e-08</v>
+        <v>8.228215886418866e-10</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.980457753347764e-08</v>
+        <v>2.514562558175726e-09</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.277659489318239e-08</v>
+        <v>3.712770535457821e-09</v>
       </c>
       <c r="FK12" t="n">
-        <v>1.387536840979919e-08</v>
+        <v>9.531145872543334e-10</v>
       </c>
       <c r="FL12" t="n">
-        <v>5.794736779307641e-08</v>
+        <v>1.339044014558866e-10</v>
       </c>
       <c r="FM12" t="n">
-        <v>1.740016308815484e-08</v>
+        <v>1.693899354116013e-09</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.504848157196648e-08</v>
+        <v>1.016000172882059e-09</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.391651682780548e-09</v>
+        <v>5.895551824508516e-10</v>
       </c>
       <c r="FP12" t="n">
-        <v>8.611254820323211e-09</v>
+        <v>8.696511288874831e-10</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.245051350906579e-07</v>
+        <v>8.583855848343092e-10</v>
       </c>
       <c r="FR12" t="n">
-        <v>9.636512032784594e-09</v>
+        <v>4.800653763403773e-10</v>
       </c>
       <c r="FS12" t="n">
-        <v>2.14687183586193e-08</v>
+        <v>7.669880286442776e-10</v>
       </c>
       <c r="FT12" t="n">
-        <v>7.567738435909632e-08</v>
+        <v>2.618666838927197e-09</v>
       </c>
       <c r="FU12" t="n">
-        <v>3.444000640229206e-08</v>
+        <v>3.941693360598464e-10</v>
       </c>
       <c r="FV12" t="n">
-        <v>4.720354951359695e-08</v>
+        <v>4.915479689948654e-10</v>
       </c>
       <c r="FW12" t="n">
-        <v>6.01561040980414e-08</v>
+        <v>1.440581876011038e-09</v>
       </c>
       <c r="FX12" t="n">
-        <v>6.359142190603961e-08</v>
+        <v>7.489845410546536e-10</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.535556215515044e-08</v>
+        <v>2.506862051276926e-09</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.155084016270848e-08</v>
+        <v>7.680621139094512e-10</v>
       </c>
       <c r="GA12" t="n">
-        <v>1.328792986754479e-08</v>
+        <v>2.390577458211141e-10</v>
       </c>
       <c r="GB12" t="n">
-        <v>3.993343966612883e-08</v>
+        <v>2.510904262287283e-10</v>
       </c>
       <c r="GC12" t="n">
-        <v>1.448185127372881e-08</v>
+        <v>2.030415391374163e-09</v>
       </c>
       <c r="GD12" t="n">
-        <v>3.968760609041055e-08</v>
+        <v>5.957772053477584e-10</v>
       </c>
       <c r="GE12" t="n">
-        <v>7.836937321314963e-09</v>
+        <v>5.172718253732e-09</v>
       </c>
       <c r="GF12" t="n">
-        <v>4.415532828261348e-09</v>
+        <v>2.772386764604562e-10</v>
       </c>
       <c r="GG12" t="n">
-        <v>3.990835395484282e-08</v>
+        <v>1.779412062141716e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.008032819256186485</v>
+        <v>0.001688069896772504</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01214173622429371</v>
+        <v>0.009606230072677135</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009938759729266167</v>
+        <v>0.0001830510300351307</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02510423399507999</v>
+        <v>0.005101590882986784</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01975133456289768</v>
+        <v>0.0004316780832596123</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001359833986498415</v>
+        <v>0.007537626661360264</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000226649222895503</v>
+        <v>0.0002143544261343777</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01132034137845039</v>
+        <v>0.001854686066508293</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02442334964871407</v>
+        <v>0.0002494094951543957</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006321798078715801</v>
+        <v>0.002303196350112557</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01415785774588585</v>
+        <v>0.007553294766694307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01635362207889557</v>
+        <v>0.0005710829864256084</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02331157028675079</v>
+        <v>0.005342305637896061</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02544359862804413</v>
+        <v>0.00127386162057519</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007681543938815594</v>
+        <v>0.008210737258195877</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0003357654204592109</v>
+        <v>0.001020100666210055</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01727862097322941</v>
+        <v>0.0001043134834617376</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02314975298941135</v>
+        <v>0.0002405767445452511</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003963900730013847</v>
+        <v>0.0004952927120029926</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004053364507853985</v>
+        <v>0.001479205675423145</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002869692165404558</v>
+        <v>0.0001408293028362095</v>
       </c>
       <c r="V13" t="n">
-        <v>0.00566480215638876</v>
+        <v>0.001453222706913948</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02407983690500259</v>
+        <v>9.16227072593756e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.004034728277474642</v>
+        <v>5.518395482795313e-06</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.004483785014599562</v>
+        <v>0.0008815572364255786</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.003609305247664452</v>
+        <v>0.000186449964530766</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001418163068592548</v>
+        <v>0.001197042758576572</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001286431332118809</v>
+        <v>0.0001708117197267711</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003144084243103862</v>
+        <v>0.001118393498472869</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001607906422577798</v>
+        <v>0.0004728797648567706</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.007367122918367386</v>
+        <v>0.001010766602121294</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.005194155499339104</v>
+        <v>0.0005552666261792183</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.009898819029331207</v>
+        <v>0.0004674345254898071</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.002714369213208556</v>
+        <v>0.001833727350458503</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01364662684500217</v>
+        <v>0.0002445146674290299</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.007868408225476742</v>
+        <v>0.0003616594476625323</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.005159899592399597</v>
+        <v>0.001151200034655631</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01516353152692318</v>
+        <v>0.001426575123332441</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.00356384040787816</v>
+        <v>0.0003746936854440719</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.006369192153215408</v>
+        <v>0.0005505658918991685</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0008623289759270847</v>
+        <v>1.741203595884144e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.008517278358340263</v>
+        <v>0.001357603468932211</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.002542184432968497</v>
+        <v>0.0006051145610399544</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.00128347089048475</v>
+        <v>4.650210030376911e-07</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.001182288280688226</v>
+        <v>0.0008851679158397019</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0003113989369012415</v>
+        <v>0.001415574923157692</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.002520043170079589</v>
+        <v>0.007434331811964512</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.01211019698530436</v>
+        <v>0.0008223699405789375</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.01176705211400986</v>
+        <v>0.000323924352414906</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0001908487756736577</v>
+        <v>0.001585445133969188</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.01517305802553892</v>
+        <v>0.00434539932757616</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.001421849243342876</v>
+        <v>0.0004334454133640975</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.003735048929229379</v>
+        <v>0.001558201387524605</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.004401340615004301</v>
+        <v>0.001630960148759186</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.002151385182514787</v>
+        <v>0.00102261092979461</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.01067557651549578</v>
+        <v>0.001798177952878177</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0004459742922335863</v>
+        <v>0.002260802313685417</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.009948832914233208</v>
+        <v>0.002214011270552874</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.008063260465860367</v>
+        <v>0.002763165859505534</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0005489974282681942</v>
+        <v>0.002519707661122084</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0009363926947116852</v>
+        <v>0.0001581143005751073</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001509682973846793</v>
+        <v>0.002034406177699566</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.008955895900726318</v>
+        <v>0.0003187850525137037</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.002157975686714053</v>
+        <v>0.0005375159671530128</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.002965700579807162</v>
+        <v>0.002337180776521564</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.008924192748963833</v>
+        <v>0.0006723077385686338</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.003656374057754874</v>
+        <v>0.00244675250723958</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001092781778424978</v>
+        <v>0.002088629873469472</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001243013073690236</v>
+        <v>0.0002813769388012588</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.002265979535877705</v>
+        <v>0.001343442243523896</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.005723932757973671</v>
+        <v>0.000266905699390918</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.004611537791788578</v>
+        <v>0.0002527542237658054</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.005211829673498869</v>
+        <v>0.0006717218784615397</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.008011733181774616</v>
+        <v>0.003694337559863925</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.001045309007167816</v>
+        <v>5.702691851183772e-05</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.009542938321828842</v>
+        <v>0.0006384474691003561</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.009768008254468441</v>
+        <v>0.0006746798753738403</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.001551736379042268</v>
+        <v>0.0007001450285315514</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.00227228575386107</v>
+        <v>0.001361644128337502</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.005990323144942522</v>
+        <v>0.0008307185489684343</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.01463573519140482</v>
+        <v>0.001062167342752218</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.004286362789571285</v>
+        <v>0.0002886055444832891</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.007507818285375834</v>
+        <v>0.00182808272074908</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.003003676421940327</v>
+        <v>0.0008277924498543143</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.005272024311125278</v>
+        <v>0.0009433833765797317</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.00570640666410327</v>
+        <v>0.0005086103337816894</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0002792707819025964</v>
+        <v>0.001314350520260632</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0003667113487608731</v>
+        <v>0.0004207499732729048</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.002176804700866342</v>
+        <v>0.0003058345173485577</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.002274056430906057</v>
+        <v>0.0005660505266860127</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0005584062309935689</v>
+        <v>0.001640588277950883</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.01225420646369457</v>
+        <v>0.001323449425399303</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.003471550531685352</v>
+        <v>0.000348148139892146</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.01021780446171761</v>
+        <v>0.001250732690095901</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.01135161891579628</v>
+        <v>0.0001331143284915015</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.01092408038675785</v>
+        <v>0.0002645524800755084</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.001984630711376667</v>
+        <v>0.0001057709159795195</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.001533163944259286</v>
+        <v>0.001185592263936996</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.002358558587729931</v>
+        <v>0.0005236275028437376</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.005342967808246613</v>
+        <v>0.0001805236679501832</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.008958627469837666</v>
+        <v>0.001338620786555111</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.003008547937497497</v>
+        <v>0.000745452765841037</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.004538360051810741</v>
+        <v>0.001464969245716929</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.007314350455999374</v>
+        <v>0.000337716774083674</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.001737838960252702</v>
+        <v>0.001251384965144098</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0009517405414953828</v>
+        <v>0.0006227785488590598</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.00140719476621598</v>
+        <v>0.0009930217638611794</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.00230775005184114</v>
+        <v>0.0002893451601266861</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.006176624447107315</v>
+        <v>0.0009961361065506935</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.01462068408727646</v>
+        <v>0.003182966960594058</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01436693966388702</v>
+        <v>0.0002914509386755526</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.002221453003585339</v>
+        <v>0.002806209027767181</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.006652876269072294</v>
+        <v>0.0001409869873896241</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.002679138910025358</v>
+        <v>0.0007509172428399324</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001178696751594543</v>
+        <v>0.00187057233415544</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.006853085942566395</v>
+        <v>0.001996759325265884</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.001973869511857629</v>
+        <v>0.0009052821551449597</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0007163058617152274</v>
+        <v>0.00101900810841471</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.002038197359070182</v>
+        <v>0.000996534014120698</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.00447832653298974</v>
+        <v>0.001177514437586069</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.002488946309313178</v>
+        <v>0.001444775611162186</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.005552604328840971</v>
+        <v>0.0004376312717795372</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.005929058883339167</v>
+        <v>0.0001019110131892376</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.002096910029649734</v>
+        <v>8.764752419665456e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.002388318302109838</v>
+        <v>0.0005050060572102666</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.005285186227411032</v>
+        <v>0.000621616723947227</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0001453372242394835</v>
+        <v>0.0001261923753190786</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.002714057685807347</v>
+        <v>0.0001621021365281194</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.001844443148002028</v>
+        <v>0.001053887652233243</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.002173351356759667</v>
+        <v>0.0004453372675925493</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.001658407738432288</v>
+        <v>0.0005572211230173707</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.003015179187059402</v>
+        <v>0.00056157645303756</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.003444211557507515</v>
+        <v>9.793492790777236e-05</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0008925646543502808</v>
+        <v>0.0001437774335499853</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.007605760358273983</v>
+        <v>0.0007305721519514918</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.005641686730086803</v>
+        <v>0.0005033451598137617</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.008009413257241249</v>
+        <v>0.000401898636482656</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.001150140655227005</v>
+        <v>0.0002157499839086086</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.00705745629966259</v>
+        <v>0.0003179367631673813</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.002583875553682446</v>
+        <v>4.177789378445596e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.001176321296952665</v>
+        <v>0.0008757262257859111</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.001659358851611614</v>
+        <v>0.0007414437714032829</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.007165375165641308</v>
+        <v>6.777761882403865e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001485437504015863</v>
+        <v>0.0004618842212948948</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.005773847457021475</v>
+        <v>0.0008408550638705492</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.008365048095583916</v>
+        <v>0.000583380286116153</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.01009422540664673</v>
+        <v>0.000415256799897179</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.003183996304869652</v>
+        <v>0.0006455593975260854</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01251199096441269</v>
+        <v>0.0004993574693799019</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0002342624648008496</v>
+        <v>0.001864977995865047</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.002272395649924874</v>
+        <v>0.0007599741802550852</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.001678013941273093</v>
+        <v>0.001755730481818318</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.005257532466202974</v>
+        <v>0.0001293646346312016</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.004725509788841009</v>
+        <v>0.0002561768051236868</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.008603449910879135</v>
+        <v>0.00124308920931071</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.003488343907520175</v>
+        <v>0.0004616683872882277</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.004316282458603382</v>
+        <v>0.0009553981362842023</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.006779057905077934</v>
+        <v>0.0003255903429817408</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0001104267066693865</v>
+        <v>0.001209423295222223</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0005650523235090077</v>
+        <v>0.0007002915372140706</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.00230338447727263</v>
+        <v>0.0003730427997652441</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.003356643719598651</v>
+        <v>0.0006322682020254433</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.001318326219916344</v>
+        <v>0.0005726199597120285</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.002947278553619981</v>
+        <v>0.001004009856842458</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.006167631596326828</v>
+        <v>0.0006467569619417191</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.002418227959424257</v>
+        <v>0.0002771919826045632</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.002011053962633014</v>
+        <v>5.611831875285134e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>4.30959917139262e-05</v>
+        <v>0.0003204953973181546</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.002311831573024392</v>
+        <v>9.958430018741637e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.005328087601810694</v>
+        <v>8.934264769777656e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0004986068815924227</v>
+        <v>0.0001223815343109891</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.001003540935926139</v>
+        <v>0.001108870725147426</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.009240801446139812</v>
+        <v>0.0005970904603600502</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.002575807273387909</v>
+        <v>0.0001875810121418908</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.007565588690340519</v>
+        <v>0.0008815460605546832</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.004005484748631716</v>
+        <v>0.004232014529407024</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.001552199362777174</v>
+        <v>0.0006955328281037509</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.003531685099005699</v>
+        <v>0.0003467060741968453</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.003385840216651559</v>
+        <v>0.001649849000386894</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.003638609545305371</v>
+        <v>0.0002245379873784259</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.002137627452611923</v>
+        <v>0.001110535929910839</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.001108089345507324</v>
+        <v>0.001192463794723153</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.001557429321110249</v>
+        <v>0.0002512831124477088</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.002958157565444708</v>
+        <v>0.001367545337416232</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.001213902956806123</v>
+        <v>0.0005480673862621188</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.005016883369535208</v>
+        <v>0.0006856831023469567</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.004214202985167503</v>
+        <v>0.003158885985612869</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.001422335510142148</v>
+        <v>0.001270066015422344</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.006407557055354118</v>
+        <v>0.0008732810965739191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0005918409442529082</v>
+        <v>0.0002942474966403097</v>
       </c>
       <c r="B14" t="n">
-        <v>0.001601285883225501</v>
+        <v>0.0004199130926281214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00195438670925796</v>
+        <v>0.001670595956966281</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001035612775012851</v>
+        <v>0.001535473391413689</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002906718291342258</v>
+        <v>0.001684274291619658</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004931553732603788</v>
+        <v>0.0007200372638180852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001737636746838689</v>
+        <v>0.0004457737086340785</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01177569199353456</v>
+        <v>5.914501525694504e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001637462759390473</v>
+        <v>0.0008779120398685336</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002813409664668143</v>
+        <v>0.0002202334289904684</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001068139914423227</v>
+        <v>0.0003920674207620323</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002906170673668385</v>
+        <v>0.001313574844971299</v>
       </c>
       <c r="M14" t="n">
-        <v>4.90089223603718e-05</v>
+        <v>0.001879599643871188</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002470027189701796</v>
+        <v>0.0004366682842373848</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005003944039344788</v>
+        <v>0.0006360848783515394</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0018674231832847</v>
+        <v>0.0003140670014545321</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01275400724261999</v>
+        <v>0.0002466386358719319</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0008407874265685678</v>
+        <v>0.001254096394404769</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001228541601449251</v>
+        <v>8.614236139692366e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0005829784786328673</v>
+        <v>0.000504443421959877</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0004521910450421274</v>
+        <v>0.0004529901198111475</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0004422141646500677</v>
+        <v>0.0003382510039955378</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0009319642558693886</v>
+        <v>4.682510552811436e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0006957416189834476</v>
+        <v>0.0002580445725470781</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0009207915281876922</v>
+        <v>0.0001664894225541502</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.003238806268200278</v>
+        <v>4.320839798310772e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0001491198781877756</v>
+        <v>0.0002263557107653469</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.001220819656737149</v>
+        <v>0.0005895810318179429</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0001165404682978988</v>
+        <v>0.0002784435055218637</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0003878538846038282</v>
+        <v>0.0003120916371699423</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.001805327949114144</v>
+        <v>0.0006806404562667012</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.002627216745167971</v>
+        <v>0.0003943428455386311</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.00158361776266247</v>
+        <v>0.0001676568354014307</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.003722432069480419</v>
+        <v>0.0001071766309905797</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.001529325381852686</v>
+        <v>0.0001434811129001901</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0003510783426463604</v>
+        <v>0.0003901653690263629</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0009154598228633404</v>
+        <v>0.0001081787995644845</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0005745486705563962</v>
+        <v>0.0001480485079810023</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.00153384217992425</v>
+        <v>0.0001434937003068626</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.094284668099135e-05</v>
+        <v>8.409077418036759e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.005351505242288113</v>
+        <v>0.0004864575457759202</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.0005772577715106308</v>
+        <v>0.0001177804369945079</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0002611245727166533</v>
+        <v>0.0001712437806418166</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0009349735337309539</v>
+        <v>5.950254126219079e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0006187547114677727</v>
+        <v>9.651486834627576e-06</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.002146706450730562</v>
+        <v>0.000657921948004514</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.004553964827209711</v>
+        <v>0.0009534002165310085</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.0007265005842782557</v>
+        <v>0.0005927325692027807</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.001088014570996165</v>
+        <v>0.001002954901196063</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.002088224980980158</v>
+        <v>0.0007276808028109372</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.004811031278222799</v>
+        <v>0.0004050051211379468</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0003086997312493622</v>
+        <v>0.0001009993138723075</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.00357095617800951</v>
+        <v>0.0001723976311041042</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0003292308538220823</v>
+        <v>0.0003644093230832368</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0008626052876934409</v>
+        <v>0.0002745870151557028</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.001765731489285827</v>
+        <v>0.00149239506572485</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.001380498986691236</v>
+        <v>0.0004053131269756705</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001547418651171029</v>
+        <v>0.0004696226678788662</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.002652926836162806</v>
+        <v>5.450832031783648e-05</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.001438403502106667</v>
+        <v>0.001202852232381701</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.002889757975935936</v>
+        <v>0.0003574391885194927</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.002305430360138416</v>
+        <v>0.0007263527950271964</v>
       </c>
       <c r="BK14" t="n">
-        <v>3.799978730967268e-05</v>
+        <v>0.001123597961850464</v>
       </c>
       <c r="BL14" t="n">
-        <v>4.007792449556291e-05</v>
+        <v>0.0002690731780603528</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.001768816262483597</v>
+        <v>0.0003013023524545133</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0009118140442296863</v>
+        <v>0.0001226624444825575</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0001696541294222698</v>
+        <v>0.0003480173763819039</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0002863433037418872</v>
+        <v>0.0003282726975157857</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.001025492907501757</v>
+        <v>6.264306284720078e-05</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.001719406107440591</v>
+        <v>0.0001497398188803345</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0003455174155533314</v>
+        <v>0.0002195558481616899</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.0001722694141790271</v>
+        <v>9.253001189790666e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.0004258890985511243</v>
+        <v>0.0002872224140446633</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0009761156397871673</v>
+        <v>0.0003744478162843734</v>
       </c>
       <c r="BW14" t="n">
-        <v>7.369971717707813e-05</v>
+        <v>0.0004011776763945818</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0003915048728231341</v>
+        <v>0.0008390638395212591</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.0005926770390942693</v>
+        <v>0.0008641169406473637</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.003271504770964384</v>
+        <v>0.0002262976631755009</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.001104795373976231</v>
+        <v>5.677293665939942e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.003885454498231411</v>
+        <v>3.487680078251287e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>2.522101385693531e-05</v>
+        <v>0.0004989798180758953</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0004645268199965358</v>
+        <v>6.989643588894978e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0004782087635248899</v>
+        <v>0.000147269616718404</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0007186488946899772</v>
+        <v>0.000500353635288775</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.0001282333250856027</v>
+        <v>0.0003083516494370997</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.001141606830060482</v>
+        <v>0.000451909756520763</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.001008968101814389</v>
+        <v>0.0001386952644679695</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0003795551601797342</v>
+        <v>0.0001668052427703515</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.00212920387275517</v>
+        <v>0.0001745566260069609</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.0001765326887834817</v>
+        <v>7.236416422529146e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.001347522949799895</v>
+        <v>0.0006699255318380892</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.00245123659260571</v>
+        <v>0.000684895203448832</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.001133920042775571</v>
+        <v>3.857596311718225e-06</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.001179818413220346</v>
+        <v>0.0002990609791595489</v>
       </c>
       <c r="CQ14" t="n">
-        <v>9.274762123823166e-05</v>
+        <v>0.0001024662924464792</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0004502047086134553</v>
+        <v>0.0002067367604468018</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.001821658341214061</v>
+        <v>0.0002539907000027597</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.002742389915511012</v>
+        <v>0.0006456360570155084</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.00108284258749336</v>
+        <v>1.696436811471358e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.0005297106108628213</v>
+        <v>1.132398301706417e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.0005531403585337102</v>
+        <v>0.0002277699531987309</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.0007926863618195057</v>
+        <v>0.0003414354287087917</v>
       </c>
       <c r="CY14" t="n">
-        <v>3.849531276500784e-05</v>
+        <v>0.0003239192883484066</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0009637968614697456</v>
+        <v>0.0003298452065791935</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.0008469516760669649</v>
+        <v>9.629849228076637e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.000185667842742987</v>
+        <v>0.0001858913747128099</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.002446098020300269</v>
+        <v>9.480470907874405e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0003034991095773876</v>
+        <v>9.49359018704854e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.004955783486366272</v>
+        <v>6.453915557358414e-05</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.004421301651746035</v>
+        <v>0.0004954907344654202</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.00292371935211122</v>
+        <v>0.001213577808812261</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001817227806895971</v>
+        <v>4.241500937496312e-05</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.001372971804812551</v>
+        <v>0.0003973935381509364</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.002186240861192346</v>
+        <v>0.0003113516431767493</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.001417393563315272</v>
+        <v>0.0005983144510537386</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0004862045170739293</v>
+        <v>0.0003165967063978314</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.001412731246091425</v>
+        <v>0.0002986906329169869</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.0009472335805185139</v>
+        <v>1.586872531333938e-05</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.00100035744253546</v>
+        <v>0.0005756384925916791</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0005875040078535676</v>
+        <v>0.0001419799373252317</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0002310307172592729</v>
+        <v>0.0001549652370158583</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.001122101559303701</v>
+        <v>0.001038853428326547</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.001174852135591209</v>
+        <v>0.0002704058715607971</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.001631036284379661</v>
+        <v>5.058950046077371e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>3.366049713804387e-05</v>
+        <v>0.0001428826944902539</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.001463149674236774</v>
+        <v>0.0005982838338240981</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.0002967366890516132</v>
+        <v>0.0001364649797324091</v>
       </c>
       <c r="DX14" t="n">
-        <v>6.133847637102008e-05</v>
+        <v>0.0006434574024751782</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.00140966463368386</v>
+        <v>0.000540047069080174</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.000289380521280691</v>
+        <v>0.0001451805437682196</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0004379542369861156</v>
+        <v>0.0003736248181667179</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.0001660455600358546</v>
+        <v>8.85988338268362e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.0007552469032816589</v>
+        <v>3.23164276778698e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0002994691312778741</v>
+        <v>0.0002712399582378566</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.0006969603709876537</v>
+        <v>0.0002267922245664522</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.002181349089369178</v>
+        <v>0.0002010305470321327</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.002672573551535606</v>
+        <v>0.0004890197888016701</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.0001697489788057283</v>
+        <v>0.000549279386177659</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.000563907902687788</v>
+        <v>0.0006855645915493369</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.0004636904632207006</v>
+        <v>1.740649167913944e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.0002681526239030063</v>
+        <v>0.0001035897657857276</v>
       </c>
       <c r="EL14" t="n">
-        <v>5.143113230587915e-05</v>
+        <v>0.0001853327557910234</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.002359362784773111</v>
+        <v>5.911008338443935e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.00031616585329175</v>
+        <v>0.0002149595529772341</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.0001974634651560336</v>
+        <v>3.456613194430247e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0006698760553263128</v>
+        <v>0.0006014388636685908</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.001003535930067301</v>
+        <v>9.862937440630049e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0002836957864928991</v>
+        <v>0.0003393929218873382</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.001637720270082355</v>
+        <v>0.0002000547974603251</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0007170719909481704</v>
+        <v>7.746285700704902e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.0002680257020983845</v>
+        <v>0.000266959163127467</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.002120794728398323</v>
+        <v>0.0001440921769244596</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.001109200879000127</v>
+        <v>0.0005929036415182054</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.0006886147311888635</v>
+        <v>1.833984060795046e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.0007085540564730763</v>
+        <v>0.000345874490449205</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.000626978580839932</v>
+        <v>0.0004792411637026817</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0004490581632126123</v>
+        <v>0.0003531479742377996</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.001421871595084667</v>
+        <v>0.0003188015834894031</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.001066741766408086</v>
+        <v>5.122863876749761e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0003368284087628126</v>
+        <v>0.0001460885396227241</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0022989462595433</v>
+        <v>0.0001387745141983032</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0001636411034269258</v>
+        <v>0.00014382520748768</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.000915399519726634</v>
+        <v>0.0001264040038222447</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0001776832796167582</v>
+        <v>0.0002421791141387075</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.001590741449035704</v>
+        <v>1.107741627492942e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.000360470701707527</v>
+        <v>0.0003023716853931546</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.0002363364619668573</v>
+        <v>5.735323793487623e-05</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.0002443024714011699</v>
+        <v>0.000116962444735691</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0007820854079909623</v>
+        <v>2.090696943923831e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.001143624074757099</v>
+        <v>0.0004249743651598692</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0004787244251929224</v>
+        <v>7.07386716385372e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.001429335912689567</v>
+        <v>0.0002117293333867565</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.0002918122336268425</v>
+        <v>5.632874672301114e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.0003320104442536831</v>
+        <v>8.028504089452326e-05</v>
       </c>
       <c r="FS14" t="n">
-        <v>5.301967030391097e-05</v>
+        <v>8.640289888717234e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.002405933802947402</v>
+        <v>0.000459707691334188</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.001420242711901665</v>
+        <v>0.0003501501341816038</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.001728042378090322</v>
+        <v>0.0001107192729250528</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.00126071588601917</v>
+        <v>0.0005088725592941046</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.0001587806618772447</v>
+        <v>8.250935934484005e-06</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.0001206993038067594</v>
+        <v>6.939195009181276e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.0006380490958690643</v>
+        <v>0.0004064759705215693</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0001416755258105695</v>
+        <v>0.0001285918551729992</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0008765322272665799</v>
+        <v>0.0003919727460015565</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.0009033706737682223</v>
+        <v>0.0006656856276094913</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0004841657064389437</v>
+        <v>0.0004753886605612934</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0004035252786707133</v>
+        <v>0.0001176192163256928</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.000520500645507127</v>
+        <v>0.0003828332992270589</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.0009229061543010175</v>
+        <v>0.0001083721872419119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.841466534813208e-09</v>
+        <v>1.792124294297537e-06</v>
       </c>
       <c r="B15" t="n">
-        <v>3.29275628985215e-08</v>
+        <v>2.76775645033922e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>3.884162680378722e-08</v>
+        <v>7.687414836254902e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>5.300173455680124e-08</v>
+        <v>1.528321035948466e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>2.027085699296549e-08</v>
+        <v>2.793402745737694e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>1.20784555690534e-08</v>
+        <v>9.844117448665202e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00231245525606e-08</v>
+        <v>2.904539360315539e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>2.206079230404612e-08</v>
+        <v>4.820129106519744e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.305524032271023e-08</v>
+        <v>1.84868295036722e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.356751904741827e-09</v>
+        <v>2.462308657413814e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>4.19737062884451e-08</v>
+        <v>1.687399708316661e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>2.848192615090284e-08</v>
+        <v>8.673978300066665e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>6.778847705390945e-08</v>
+        <v>5.250427420833148e-06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.704502317068091e-08</v>
+        <v>1.906759280245751e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>2.68411852744066e-08</v>
+        <v>7.749975338811055e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>6.800443763665953e-09</v>
+        <v>1.863354009401519e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.960196532342252e-08</v>
+        <v>3.754568751901388e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>2.07789643269507e-08</v>
+        <v>8.999666079034796e-07</v>
       </c>
       <c r="S15" t="n">
-        <v>8.459392075721439e-10</v>
+        <v>3.839917553705163e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.600486854158589e-08</v>
+        <v>4.586372597259469e-06</v>
       </c>
       <c r="U15" t="n">
-        <v>6.864463664157938e-09</v>
+        <v>7.912913133623078e-06</v>
       </c>
       <c r="V15" t="n">
-        <v>3.575622908869036e-09</v>
+        <v>1.646950840950012e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>2.794072173628592e-08</v>
+        <v>2.240675894427113e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>6.727813417484185e-09</v>
+        <v>7.144196388253476e-06</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.944112923041757e-09</v>
+        <v>3.683292106870795e-06</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.979086755061644e-09</v>
+        <v>1.812744812923484e-06</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.869764076900537e-08</v>
+        <v>5.85177076573018e-07</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.805037618320739e-09</v>
+        <v>3.438188514337526e-06</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.114810962605134e-09</v>
+        <v>1.69286740856478e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.0602997591036e-08</v>
+        <v>1.964715556823649e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.206052407416337e-08</v>
+        <v>4.397373231768142e-06</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.686160366887179e-08</v>
+        <v>1.020353920466732e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.080381949516209e-09</v>
+        <v>5.533452167583164e-06</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.882060172268666e-09</v>
+        <v>7.468179319403134e-06</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.298356711032511e-08</v>
+        <v>1.344816723758413e-06</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.387270825465748e-09</v>
+        <v>3.142951300105779e-06</v>
       </c>
       <c r="AK15" t="n">
-        <v>9.622576513379499e-09</v>
+        <v>1.936347416631179e-06</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.536993643469486e-08</v>
+        <v>3.339159093229682e-06</v>
       </c>
       <c r="AM15" t="n">
-        <v>7.574998406312261e-10</v>
+        <v>2.193561613239581e-06</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.827452298490243e-09</v>
+        <v>6.342163032968529e-06</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.088891548623906e-08</v>
+        <v>3.08170092466753e-06</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.525571668992143e-08</v>
+        <v>1.700803113635629e-05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.218368606004105e-08</v>
+        <v>6.365639819705393e-06</v>
       </c>
       <c r="AR15" t="n">
-        <v>9.09287978245743e-10</v>
+        <v>1.607839749340201e-06</v>
       </c>
       <c r="AS15" t="n">
-        <v>8.531487516449943e-09</v>
+        <v>5.547107093661907e-07</v>
       </c>
       <c r="AT15" t="n">
-        <v>5.513387524302971e-09</v>
+        <v>1.152381537394831e-05</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.629750804951982e-09</v>
+        <v>1.430725569662172e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>7.438714089147425e-10</v>
+        <v>4.293675829103449e-06</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.713457464802559e-08</v>
+        <v>1.387644624628592e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.06524966017696e-08</v>
+        <v>2.751862666627858e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>2.143023980494263e-09</v>
+        <v>5.67547685932368e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>8.600959944260467e-09</v>
+        <v>1.618828900973313e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>8.097302384157956e-09</v>
+        <v>2.583443711046129e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>3.008608473464847e-08</v>
+        <v>1.582939512445591e-05</v>
       </c>
       <c r="BC15" t="n">
-        <v>9.943213363783343e-09</v>
+        <v>1.334660919383168e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>2.12077218009199e-08</v>
+        <v>2.802926246658899e-06</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.278505656898687e-08</v>
+        <v>6.525455773953581e-06</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.173704244905593e-08</v>
+        <v>1.77446872839937e-05</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.197939525354741e-09</v>
+        <v>2.704434336919803e-05</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.721856879299821e-09</v>
+        <v>2.490230508556124e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>1.579152453246024e-08</v>
+        <v>6.980332727835048e-06</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2.748115290884812e-09</v>
+        <v>4.238526344124693e-06</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.528019488716836e-08</v>
+        <v>9.066521670320071e-06</v>
       </c>
       <c r="BL15" t="n">
-        <v>6.07684791376073e-10</v>
+        <v>4.513879048317904e-07</v>
       </c>
       <c r="BM15" t="n">
-        <v>2.091512207869073e-08</v>
+        <v>2.609563125588465e-05</v>
       </c>
       <c r="BN15" t="n">
-        <v>3.039854756803351e-10</v>
+        <v>1.161312775366241e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>3.233347145581433e-09</v>
+        <v>5.00428541272413e-06</v>
       </c>
       <c r="BP15" t="n">
-        <v>4.191886837645598e-09</v>
+        <v>6.422966635000193e-06</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6.951627273821259e-09</v>
+        <v>6.545722499140538e-06</v>
       </c>
       <c r="BR15" t="n">
-        <v>3.95576149614385e-09</v>
+        <v>1.392980811942834e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>9.671856204818141e-09</v>
+        <v>1.382131631544326e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>4.756747884471224e-09</v>
+        <v>1.581044307386037e-05</v>
       </c>
       <c r="BU15" t="n">
-        <v>3.396976033798182e-09</v>
+        <v>1.582496679475298e-06</v>
       </c>
       <c r="BV15" t="n">
-        <v>9.250169519248175e-10</v>
+        <v>1.172101747215493e-05</v>
       </c>
       <c r="BW15" t="n">
-        <v>8.322498246116083e-09</v>
+        <v>3.809035206359113e-06</v>
       </c>
       <c r="BX15" t="n">
-        <v>2.403655585681008e-08</v>
+        <v>5.768277333118021e-06</v>
       </c>
       <c r="BY15" t="n">
-        <v>2.895088968557502e-08</v>
+        <v>1.21105667858501e-05</v>
       </c>
       <c r="BZ15" t="n">
-        <v>3.174888796309006e-09</v>
+        <v>2.534071063564625e-05</v>
       </c>
       <c r="CA15" t="n">
-        <v>7.530417178713833e-09</v>
+        <v>1.860421434685122e-06</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.258722726049655e-08</v>
+        <v>1.386451822327217e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>2.651527708508183e-08</v>
+        <v>1.861457803897792e-06</v>
       </c>
       <c r="CD15" t="n">
-        <v>1.119555026463104e-08</v>
+        <v>4.376749700440996e-07</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.052877607321534e-08</v>
+        <v>1.736464810164762e-06</v>
       </c>
       <c r="CF15" t="n">
-        <v>3.439297735496893e-09</v>
+        <v>1.162735088655609e-06</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.110805314397112e-08</v>
+        <v>1.147494003816973e-06</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.179187236743928e-08</v>
+        <v>8.940837687987369e-06</v>
       </c>
       <c r="CI15" t="n">
-        <v>1.296203810952079e-09</v>
+        <v>1.74837277882034e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>6.980491740193884e-09</v>
+        <v>7.756063496344723e-06</v>
       </c>
       <c r="CK15" t="n">
-        <v>7.968875337382997e-09</v>
+        <v>1.103848990169354e-05</v>
       </c>
       <c r="CL15" t="n">
-        <v>1.957958239984237e-10</v>
+        <v>1.956448159035062e-07</v>
       </c>
       <c r="CM15" t="n">
-        <v>5.628743693364413e-09</v>
+        <v>8.338169550370367e-07</v>
       </c>
       <c r="CN15" t="n">
-        <v>8.672518703178866e-09</v>
+        <v>5.081728431832744e-06</v>
       </c>
       <c r="CO15" t="n">
-        <v>4.745440485010022e-09</v>
+        <v>9.449604476685636e-07</v>
       </c>
       <c r="CP15" t="n">
-        <v>6.208082048431152e-09</v>
+        <v>2.160963049391285e-05</v>
       </c>
       <c r="CQ15" t="n">
-        <v>2.766666895581693e-08</v>
+        <v>3.472608659649268e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>1.573737762328165e-08</v>
+        <v>6.382208994182292e-06</v>
       </c>
       <c r="CS15" t="n">
-        <v>7.235022358997867e-09</v>
+        <v>2.972851234517293e-06</v>
       </c>
       <c r="CT15" t="n">
-        <v>3.768493073152968e-08</v>
+        <v>7.332503628276754e-06</v>
       </c>
       <c r="CU15" t="n">
-        <v>9.196477357420463e-09</v>
+        <v>8.320598681166302e-06</v>
       </c>
       <c r="CV15" t="n">
-        <v>1.248423497912654e-08</v>
+        <v>1.39201290494384e-06</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.355166112659845e-08</v>
+        <v>1.231786654898315e-06</v>
       </c>
       <c r="CX15" t="n">
-        <v>6.976222266530385e-09</v>
+        <v>8.392851214011898e-07</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.249860659413571e-08</v>
+        <v>6.3612185385864e-07</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.428265772318582e-08</v>
+        <v>6.9046418502694e-06</v>
       </c>
       <c r="DA15" t="n">
-        <v>2.861843206858339e-09</v>
+        <v>1.972066093003377e-05</v>
       </c>
       <c r="DB15" t="n">
-        <v>4.401715880675283e-09</v>
+        <v>6.675934400846018e-06</v>
       </c>
       <c r="DC15" t="n">
-        <v>9.596059058480932e-09</v>
+        <v>1.390568377246382e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>1.189169651638622e-09</v>
+        <v>4.011762030131649e-06</v>
       </c>
       <c r="DE15" t="n">
-        <v>2.48398617230805e-08</v>
+        <v>3.86346710001817e-06</v>
       </c>
       <c r="DF15" t="n">
-        <v>3.921780233895333e-09</v>
+        <v>2.012731783906929e-05</v>
       </c>
       <c r="DG15" t="n">
-        <v>8.850967070372917e-09</v>
+        <v>2.618362486828119e-06</v>
       </c>
       <c r="DH15" t="n">
-        <v>1.53466785945966e-08</v>
+        <v>1.791039176168852e-05</v>
       </c>
       <c r="DI15" t="n">
-        <v>1.15314762183516e-08</v>
+        <v>1.446875103283674e-06</v>
       </c>
       <c r="DJ15" t="n">
-        <v>2.918940467111497e-08</v>
+        <v>5.502201929630246e-07</v>
       </c>
       <c r="DK15" t="n">
-        <v>2.171061552758147e-09</v>
+        <v>7.592675501655322e-06</v>
       </c>
       <c r="DL15" t="n">
-        <v>1.870080268417951e-08</v>
+        <v>1.937387423822656e-05</v>
       </c>
       <c r="DM15" t="n">
-        <v>1.228139367981385e-09</v>
+        <v>1.138016432378208e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>1.363232549067561e-08</v>
+        <v>6.432927875721361e-06</v>
       </c>
       <c r="DO15" t="n">
-        <v>4.68404692810509e-09</v>
+        <v>2.175584086216986e-07</v>
       </c>
       <c r="DP15" t="n">
-        <v>1.504074642610931e-09</v>
+        <v>2.87959551314998e-07</v>
       </c>
       <c r="DQ15" t="n">
-        <v>6.9263905722039e-09</v>
+        <v>1.064297066477593e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.096532553646057e-08</v>
+        <v>1.686647374299355e-05</v>
       </c>
       <c r="DS15" t="n">
-        <v>7.729200390826918e-09</v>
+        <v>2.073742507491261e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>1.397312709983112e-09</v>
+        <v>1.484271524532232e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>2.711536772892487e-09</v>
+        <v>7.214505785668734e-06</v>
       </c>
       <c r="DV15" t="n">
-        <v>1.349266387506987e-08</v>
+        <v>3.379280315130018e-06</v>
       </c>
       <c r="DW15" t="n">
-        <v>2.390091458082111e-10</v>
+        <v>2.135527893187827e-06</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.212251365956263e-08</v>
+        <v>4.887738668912789e-06</v>
       </c>
       <c r="DY15" t="n">
-        <v>6.073020308861032e-09</v>
+        <v>7.299477147171274e-07</v>
       </c>
       <c r="DZ15" t="n">
-        <v>2.993088665803612e-09</v>
+        <v>1.308937135036103e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>1.121891912703177e-08</v>
+        <v>2.979564897032105e-06</v>
       </c>
       <c r="EB15" t="n">
-        <v>6.387872453217369e-09</v>
+        <v>1.019044157146709e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>2.625933470667974e-09</v>
+        <v>7.988543075043708e-06</v>
       </c>
       <c r="ED15" t="n">
-        <v>5.886443776859096e-09</v>
+        <v>3.432350922594196e-06</v>
       </c>
       <c r="EE15" t="n">
-        <v>1.199530608175792e-08</v>
+        <v>1.714949212328065e-05</v>
       </c>
       <c r="EF15" t="n">
-        <v>1.077401101667874e-08</v>
+        <v>3.088315452259849e-06</v>
       </c>
       <c r="EG15" t="n">
-        <v>7.433030191350554e-09</v>
+        <v>9.058093382918742e-06</v>
       </c>
       <c r="EH15" t="n">
-        <v>1.749586431287753e-08</v>
+        <v>7.497086699004285e-06</v>
       </c>
       <c r="EI15" t="n">
-        <v>1.987138631420748e-08</v>
+        <v>1.395925573888235e-05</v>
       </c>
       <c r="EJ15" t="n">
-        <v>6.421299048042783e-09</v>
+        <v>4.828635155718075e-06</v>
       </c>
       <c r="EK15" t="n">
-        <v>3.458678010659355e-09</v>
+        <v>7.328871106437873e-06</v>
       </c>
       <c r="EL15" t="n">
-        <v>1.108428193674627e-08</v>
+        <v>6.559407211170765e-06</v>
       </c>
       <c r="EM15" t="n">
-        <v>5.262035251973884e-09</v>
+        <v>1.01737750810571e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>9.614602447527432e-10</v>
+        <v>5.403806426329538e-06</v>
       </c>
       <c r="EO15" t="n">
-        <v>4.810973841529176e-09</v>
+        <v>2.228117864433443e-06</v>
       </c>
       <c r="EP15" t="n">
-        <v>2.631437290290251e-09</v>
+        <v>8.25400093162898e-06</v>
       </c>
       <c r="EQ15" t="n">
-        <v>9.462217676059481e-09</v>
+        <v>7.230170922412071e-06</v>
       </c>
       <c r="ER15" t="n">
-        <v>6.882281411435542e-09</v>
+        <v>1.266184153791983e-05</v>
       </c>
       <c r="ES15" t="n">
-        <v>1.949510419763101e-08</v>
+        <v>5.302104909787886e-06</v>
       </c>
       <c r="ET15" t="n">
-        <v>8.108104410098349e-09</v>
+        <v>6.97286986905965e-06</v>
       </c>
       <c r="EU15" t="n">
-        <v>8.050367483747323e-09</v>
+        <v>9.989112186303828e-07</v>
       </c>
       <c r="EV15" t="n">
-        <v>1.614153610773883e-08</v>
+        <v>2.783749914669897e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>6.027970567146212e-09</v>
+        <v>1.932708255480975e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>9.412180368428835e-09</v>
+        <v>1.700878442534304e-06</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.114189895901063e-08</v>
+        <v>2.024228933805716e-06</v>
       </c>
       <c r="EZ15" t="n">
-        <v>7.345555719240338e-09</v>
+        <v>1.019489332065859e-06</v>
       </c>
       <c r="FA15" t="n">
-        <v>1.233334323558211e-08</v>
+        <v>9.684795259090606e-07</v>
       </c>
       <c r="FB15" t="n">
-        <v>1.065559906976432e-08</v>
+        <v>8.194044312404003e-06</v>
       </c>
       <c r="FC15" t="n">
-        <v>2.588554037785684e-09</v>
+        <v>1.768353286024649e-05</v>
       </c>
       <c r="FD15" t="n">
-        <v>7.411377289656684e-09</v>
+        <v>9.144535397354048e-06</v>
       </c>
       <c r="FE15" t="n">
-        <v>5.496496591206324e-09</v>
+        <v>1.340336166322231e-05</v>
       </c>
       <c r="FF15" t="n">
-        <v>1.468067889476288e-09</v>
+        <v>3.323086275486276e-06</v>
       </c>
       <c r="FG15" t="n">
-        <v>1.768835922177914e-08</v>
+        <v>5.574707302002935e-06</v>
       </c>
       <c r="FH15" t="n">
-        <v>5.636684896614952e-09</v>
+        <v>7.37645950721344e-06</v>
       </c>
       <c r="FI15" t="n">
-        <v>6.681307951339477e-09</v>
+        <v>7.989605364855379e-06</v>
       </c>
       <c r="FJ15" t="n">
-        <v>1.694938589480444e-08</v>
+        <v>1.550434535602108e-05</v>
       </c>
       <c r="FK15" t="n">
-        <v>1.176454578200037e-08</v>
+        <v>7.602463028888451e-06</v>
       </c>
       <c r="FL15" t="n">
-        <v>2.164147439032149e-08</v>
+        <v>1.578780211275443e-05</v>
       </c>
       <c r="FM15" t="n">
-        <v>4.88263651732268e-09</v>
+        <v>5.547090040636249e-06</v>
       </c>
       <c r="FN15" t="n">
-        <v>5.373568257027728e-09</v>
+        <v>1.502699888078496e-06</v>
       </c>
       <c r="FO15" t="n">
-        <v>9.108208409713825e-09</v>
+        <v>1.566126798024925e-06</v>
       </c>
       <c r="FP15" t="n">
-        <v>1.908338020939482e-08</v>
+        <v>2.023197794187581e-06</v>
       </c>
       <c r="FQ15" t="n">
-        <v>2.365936779824551e-08</v>
+        <v>1.292723391088657e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>1.283375894445271e-08</v>
+        <v>1.871930635388708e-06</v>
       </c>
       <c r="FS15" t="n">
-        <v>1.124166892907397e-08</v>
+        <v>1.292261003982276e-06</v>
       </c>
       <c r="FT15" t="n">
-        <v>5.840306016580143e-11</v>
+        <v>2.970270725199953e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>6.81900869103913e-10</v>
+        <v>2.053229945886414e-05</v>
       </c>
       <c r="FV15" t="n">
-        <v>1.079890843413978e-09</v>
+        <v>3.537444626999786e-06</v>
       </c>
       <c r="FW15" t="n">
-        <v>1.604331334448261e-09</v>
+        <v>6.724016202497296e-06</v>
       </c>
       <c r="FX15" t="n">
-        <v>2.188370595845868e-09</v>
+        <v>1.144425004895311e-05</v>
       </c>
       <c r="FY15" t="n">
-        <v>8.963721320753848e-09</v>
+        <v>7.653505235794e-06</v>
       </c>
       <c r="FZ15" t="n">
-        <v>1.862746401570803e-08</v>
+        <v>3.330958179503796e-06</v>
       </c>
       <c r="GA15" t="n">
-        <v>7.207473284864818e-09</v>
+        <v>7.924590136099141e-06</v>
       </c>
       <c r="GB15" t="n">
-        <v>1.190931619987623e-08</v>
+        <v>6.648491762462072e-06</v>
       </c>
       <c r="GC15" t="n">
-        <v>1.679099526086247e-08</v>
+        <v>2.359005156904459e-05</v>
       </c>
       <c r="GD15" t="n">
-        <v>2.340093452346537e-09</v>
+        <v>3.530037702148547e-06</v>
       </c>
       <c r="GE15" t="n">
-        <v>1.928089332636773e-08</v>
+        <v>6.094596301409183e-06</v>
       </c>
       <c r="GF15" t="n">
-        <v>1.532085214250856e-08</v>
+        <v>8.010078090592287e-06</v>
       </c>
       <c r="GG15" t="n">
-        <v>1.760137635642423e-08</v>
+        <v>5.458432497107424e-06</v>
       </c>
     </row>
   </sheetData>
